--- a/java/ubl2ebinterface/mapping.xlsx
+++ b/java/ubl2ebinterface/mapping.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mapping" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
   <si>
     <t>UBL-Feld</t>
   </si>
@@ -31,14 +31,6 @@
     <t>/ProfileID</t>
   </si>
   <si>
-    <t>Muss einer der folgenden Werte sein:
-urn:www.cenbii.eu:profile:bii01:ver1.0
-urn:www.cenbii.eu:profile:bii03:ver1.0
-urn:www.cenbii.eu:profile:bii04:ver1.0
-urn:www.cenbii.eu:profile:bii05:ver1.0
-urn:www.cenbii.eu:profile:bii06:ver1.0</t>
-  </si>
-  <si>
     <t>/InvoiceTypeCode</t>
   </si>
   <si>
@@ -55,9 +47,6 @@
   </si>
   <si>
     <t>Kommentar DE</t>
-  </si>
-  <si>
-    <t>Muss einen der folgenden Werte haben: AFN, EUR, ALL, DZD, USD, AOA, XCD, ARS, AMD, AWG, AUD, AZN, BSD, BHD, BDT, BBD, BYR, BZD, XOF, BMD, INR, BTN, BOB, BOV, BAM, BWP, NOK, BRL, BND, BGN, BIF, KHR, XAF, CAD, CVE, KYD, CLP, CLF, CNY, COP, COU, KMF, CDF, NZD, CRC, HRK, CUP, CUC, ANG, CZK, DKK, DJF, DOP, EGP, SVC, ERN, ETB, FKP, FJD, XPF, GMD, GEL, GHS, GIP, GTQ, GBP, GNF, GYD, HTG, HNL, HKD, HUF, ISK, IDR, XDR, IRR, IQD, ILS, JMD, JPY, JOD, KZT, KES, KPW, KRW, KWD, KGS, LAK, LVL, LBP, LSL, ZAR, LRD, LYD, CHF, LTL, MOP, MKD, MGA, MWK, MYR, MVR, MRO, MUR, XUA, MXN, MXV, MDL, MNT, MAD, MZN, MMK, NAD, NPR, NIO, NGN, OMR, PKR, PAB, PGK, PYG, PEN, PHP, PLN, QAR, RON, RUB, RWF, SHP, WST, STD, SAR, RSD, SCR, SLL, SGD, XSU, SBD, SOS, SSP, LKR, SDG, SRD, SZL, SEK, CHE, CHW, SYP, TWD, TJS, TZS, THB, TOP, TTD, TND, TRY, TMT, UGX, UAH, AED, USN, USS, UYU, UYI, UZS, VUV, VEF, VND, YER, ZMK, ZWL, XBA, XBB, XBC, XBD, XFU, XTS, XXX, XAU, XPD, XPT, XAG</t>
   </si>
   <si>
     <t>/ID</t>
@@ -128,9 +117,6 @@
   </si>
   <si>
     <t>/AccountingSupplierParty/Party/PostalAddress/Country/IdentificationCode</t>
-  </si>
-  <si>
-    <t>Muss einen der folgenden Werte haben: AD, AE, AF, AG, AI, AL, AM, AO, AQ, AR, AS, AT, AU, AW, AX, AZ, BA, BB, BD, BE, BF, BG, BH, BI, BJ, BL, BM, BN, BO, BQ, BR, BS, BT, BV, BW, BY, BZ, CA, CC, CD, CF, CG, CH, CI, CK, CL, CM, CN, CO, CR, CU, CV, CW, CX, CY, CZ, DE, DJ, DK, DM, DO, DZ, EC, EE, EG, EH, ER, ES, ET, FI, FJ, FK, FM, FO, FR, GA, GB, GD, GE, GF, GG, GH, GI, GL, GM, GN, GP, GQ, GR, GS, GT, GU, GW, GY, HK, HM, HN, HR, HT, HU, ID, IE, IL, IM, IN, IO, IQ, IR, IS, IT, JE, JM, JO, JP, KE, KG, KH, KI, KM, KN, KP, KR, KW, KY, KZ, LA, LB, LC, LI, LK, LR, LS, LT, LU, LV, LY, MA, MC, MD, ME, MF, MG, MH, MK, ML, MM, MN, MO, MP, MQ, MR, MS, MT, MU, MV, MW, MX, MY, MZ, NA, NC, NE, NF, NG, NI, NL, NO, NP, NR, NU, NZ, OM, PA, PE, PF, PG, PH, PK, PL, PM, PN, PR, PS, PT, PW, PY, QA, RE, RO, RS, RU, RW, SA, SB, SC, SD, SE, SG, SH, SI, SJ, SK, SL, SM, SN, SO, SR, SS, ST, SV, SX, SY, SZ, TC, TD, TF, TG, TH, TJ, TK, TL, TM, TN, TO, TR, TT, TV, TW, TZ, UA, UG, UM, US, UY, UZ, VA, VC, VE, VG, VI, VN, VU, WF, WS, YE, YT, ZA, ZM, ZW</t>
   </si>
   <si>
     <t>Ländercode des Rechnungsstellers</t>
@@ -180,6 +166,126 @@
   </si>
   <si>
     <t>to be continued</t>
+  </si>
+  <si>
+    <t>Codelist</t>
+  </si>
+  <si>
+    <t>urn:www.cenbii.eu:profile:bii01:ver1.0
+urn:www.cenbii.eu:profile:bii03:ver1.0
+urn:www.cenbii.eu:profile:bii04:ver1.0
+urn:www.cenbii.eu:profile:bii05:ver1.0
+urn:www.cenbii.eu:profile:bii06:ver1.0</t>
+  </si>
+  <si>
+    <t>AFN, EUR, ALL, DZD, USD, AOA, XCD, ARS, AMD, AWG, AUD, AZN, BSD, BHD, BDT, BBD, BYR, BZD, XOF, BMD, INR, BTN, BOB, BOV, BAM, BWP, NOK, BRL, BND, BGN, BIF, KHR, XAF, CAD, CVE, KYD, CLP, CLF, CNY, COP, COU, KMF, CDF, NZD, CRC, HRK, CUP, CUC, ANG, CZK, DKK, DJF, DOP, EGP, SVC, ERN, ETB, FKP, FJD, XPF, GMD, GEL, GHS, GIP, GTQ, GBP, GNF, GYD, HTG, HNL, HKD, HUF, ISK, IDR, XDR, IRR, IQD, ILS, JMD, JPY, JOD, KZT, KES, KPW, KRW, KWD, KGS, LAK, LVL, LBP, LSL, ZAR, LRD, LYD, CHF, LTL, MOP, MKD, MGA, MWK, MYR, MVR, MRO, MUR, XUA, MXN, MXV, MDL, MNT, MAD, MZN, MMK, NAD, NPR, NIO, NGN, OMR, PKR, PAB, PGK, PYG, PEN, PHP, PLN, QAR, RON, RUB, RWF, SHP, WST, STD, SAR, RSD, SCR, SLL, SGD, XSU, SBD, SOS, SSP, LKR, SDG, SRD, SZL, SEK, CHE, CHW, SYP, TWD, TJS, TZS, THB, TOP, TTD, TND, TRY, TMT, UGX, UAH, AED, USN, USS, UYU, UYI, UZS, VUV, VEF, VND, YER, ZMK, ZWL, XBA, XBB, XBC, XBD, XFU, XTS, XXX, XAU, XPD, XPT, XAG</t>
+  </si>
+  <si>
+    <t>AD, AE, AF, AG, AI, AL, AM, AO, AQ, AR, AS, AT, AU, AW, AX, AZ, BA, BB, BD, BE, BF, BG, BH, BI, BJ, BL, BM, BN, BO, BQ, BR, BS, BT, BV, BW, BY, BZ, CA, CC, CD, CF, CG, CH, CI, CK, CL, CM, CN, CO, CR, CU, CV, CW, CX, CY, CZ, DE, DJ, DK, DM, DO, DZ, EC, EE, EG, EH, ER, ES, ET, FI, FJ, FK, FM, FO, FR, GA, GB, GD, GE, GF, GG, GH, GI, GL, GM, GN, GP, GQ, GR, GS, GT, GU, GW, GY, HK, HM, HN, HR, HT, HU, ID, IE, IL, IM, IN, IO, IQ, IR, IS, IT, JE, JM, JO, JP, KE, KG, KH, KI, KM, KN, KP, KR, KW, KY, KZ, LA, LB, LC, LI, LK, LR, LS, LT, LU, LV, LY, MA, MC, MD, ME, MF, MG, MH, MK, ML, MM, MN, MO, MP, MQ, MR, MS, MT, MU, MV, MW, MX, MY, MZ, NA, NC, NE, NF, NG, NI, NL, NO, NP, NR, NU, NZ, OM, PA, PE, PF, PG, PH, PK, PL, PM, PN, PR, PS, PT, PW, PY, QA, RE, RO, RS, RU, RW, SA, SB, SC, SD, SE, SG, SH, SI, SJ, SK, SL, SM, SN, SO, SR, SS, ST, SV, SX, SY, SZ, TC, TD, TF, TG, TH, TJ, TK, TL, TM, TN, TO, TR, TT, TV, TW, TZ, UA, UG, UM, US, UY, UZ, VA, VC, VE, VG, VI, VN, VU, WF, WS, YE, YT, ZA, ZM, ZW</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty</t>
+  </si>
+  <si>
+    <t>Rechnungsempfänger</t>
+  </si>
+  <si>
+    <t>UID-Nummer des Rechnungsempfängers</t>
+  </si>
+  <si>
+    <t>Name des Rechnungsempfängers</t>
+  </si>
+  <si>
+    <t>Telefonnummer des Rechnungsempfängers</t>
+  </si>
+  <si>
+    <t>E-Mail-Adresse des Rechnungsempfängers</t>
+  </si>
+  <si>
+    <t>Wird zusammen gefasst zur Straße des Rechnungsempfängers</t>
+  </si>
+  <si>
+    <t>Postfach des Rechnungsempfängers</t>
+  </si>
+  <si>
+    <t>Stadt des Rechnungsempfängers</t>
+  </si>
+  <si>
+    <t>Ländercode des Rechnungsempfängers</t>
+  </si>
+  <si>
+    <t>Ländername des Rechnungsempfängers</t>
+  </si>
+  <si>
+    <t>Wird zusammen gefasst zur Kontaktperson beim Rechnungsempfänger</t>
+  </si>
+  <si>
+    <t>GLN-Nummer des Rechnungsempfängers</t>
+  </si>
+  <si>
+    <t>DUNS-Nummer des Rechnungsempfängers</t>
+  </si>
+  <si>
+    <t>Sonstige Adress-ID des Rechnungsempfängers</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/Party/PartyTaxScheme[TaxScheme/ID[text()='VAT']]/CompanyID</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/Party/PartyName[0]/Name</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/Party/Contact/Telephone</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/Party/Contact/ElectronicMail</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/Party/PostalAddress/StreetName
+/AccountingCustomerParty/Party/PostalAddress/BuildingNumber</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/Party/PostalAddress/Postbox</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/Party/PostalAddress/CityName</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/Party/PostalAddress/Country/IdentificationCode</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/Party/PostalAddress/Country/Name</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/Party/Person/Title
+/AccountingCustomerParty/Party/Person/FirstName
+/AccountingCustomerParty/Party/Person/MiddleName
+/AccountingCustomerParty/Party/Person/LastName
+/AccountingCustomerParty/Party/Person/NameSuffix</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/Party/EndpointID[@schemeID='GLN']</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/Party/EndpointID[@schemeID='DUNS']</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/Party/EndpointID[@schemeID='ProprietaryAddressID']</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/Party/PartyIdentification/ID[@schemeID='GLN']</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/Party/PartyIdentification/ID[@schemeID='DUNS']</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/Party/PartyIdentification/ID[@schemeID='ProprietaryAddressID']</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/SupplierAssignedAccountID</t>
+  </si>
+  <si>
+    <t>Die Nummer des Rechnungsempfängers im System des Rechnungsstellers (Kundennummer)</t>
   </si>
 </sst>
 </file>
@@ -234,9 +340,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -248,6 +351,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,239 +656,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="56.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="D18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="3" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="3" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="3" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/java/ubl2ebinterface/mapping.xlsx
+++ b/java/ubl2ebinterface/mapping.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
   <si>
     <t>UBL-Feld</t>
   </si>
@@ -286,6 +286,72 @@
   </si>
   <si>
     <t>Die Nummer des Rechnungsempfängers im System des Rechnungsstellers (Kundennummer)</t>
+  </si>
+  <si>
+    <t>Nummer der Bestellung (=Auftragsreferenz).</t>
+  </si>
+  <si>
+    <t>/OrderReference/ID</t>
+  </si>
+  <si>
+    <t>ContractDocumentReference/ID/</t>
+  </si>
+  <si>
+    <t>Zur Angabe alle anderen dem Rechnungsempfänger zugeordneten Ids.</t>
+  </si>
+  <si>
+    <t>Basisbetrag, auf den sich die Steuer bezieht.</t>
+  </si>
+  <si>
+    <t>TaxTotal/TaxSubtotal/TaxAmount</t>
+  </si>
+  <si>
+    <t>TaxTotal/TaxSubtotal/TaxableAmount</t>
+  </si>
+  <si>
+    <t>Steuerbetrag.</t>
+  </si>
+  <si>
+    <t>TaxTotal/TaxSubtotal/TaxCategory/Percent</t>
+  </si>
+  <si>
+    <t>TaxTotal/TaxSubtotal/TaxCategory/TaxScheme/ID</t>
+  </si>
+  <si>
+    <t>TaxTotal/TaxSubtotal/TaxCategory/ID[@schemaID]</t>
+  </si>
+  <si>
+    <t>TaxTotal/TaxSubtotal/TaxCategory/TaxScheme/ID[@schemaID='UN/ECE 5153']</t>
+  </si>
+  <si>
+    <t>TaxTotal/TaxSubtotal/TaxCategory/TaxScheme/ID[@schemaID='UN/ECE 5153 Subset']</t>
+  </si>
+  <si>
+    <t>Umsatzsteuersatz</t>
+  </si>
+  <si>
+    <t>dient nur zur überprüfung</t>
+  </si>
+  <si>
+    <t>TaxTotal/TaxSubtotal/TaxCategory/ID</t>
+  </si>
+  <si>
+    <t>InvoiceLine/TaxTotal/TaxSubtotal/TaxCategory</t>
+  </si>
+  <si>
+    <t>InvoiceLine/TaxTotal/TaxSubtotal/ID</t>
+  </si>
+  <si>
+    <t>InvoiceLine/Item/ClassifiedTaxCategory/ID</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>"AT"+UVACode. ATXXX entspricht nicht steuerbar.</t>
+  </si>
+  <si>
+    <t>InvoiceLine/TaxTotal/TaxSubtotal[@schemaID]</t>
   </si>
 </sst>
 </file>
@@ -656,17 +722,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="84.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.42578125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -743,7 +809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -751,7 +817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -759,7 +825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -775,7 +841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -783,7 +849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -791,7 +857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -826,7 +892,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -842,7 +908,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -850,7 +916,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -858,7 +924,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -866,7 +932,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -874,7 +940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -882,7 +948,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -898,7 +964,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>68</v>
       </c>
@@ -906,7 +972,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>84</v>
       </c>
@@ -922,7 +988,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>70</v>
       </c>
@@ -930,7 +996,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>71</v>
       </c>
@@ -938,7 +1004,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>72</v>
       </c>
@@ -946,7 +1012,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>73</v>
       </c>
@@ -973,7 +1039,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>76</v>
       </c>
@@ -989,7 +1055,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>78</v>
       </c>
@@ -997,7 +1063,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
@@ -1005,7 +1071,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -1013,7 +1079,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>81</v>
       </c>
@@ -1021,7 +1087,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>82</v>
       </c>
@@ -1039,6 +1105,121 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1047,6 +1228,6 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/java/ubl2ebinterface/mapping.xlsx
+++ b/java/ubl2ebinterface/mapping.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="212">
   <si>
     <t>UBL-Feld</t>
   </si>
@@ -25,16 +25,10 @@
     <t>/UBLVersionID</t>
   </si>
   <si>
-    <t>Muss den Wert "2.0" haben</t>
-  </si>
-  <si>
     <t>/ProfileID</t>
   </si>
   <si>
     <t>/InvoiceTypeCode</t>
-  </si>
-  <si>
-    <t>Muss den Wert "380" haben</t>
   </si>
   <si>
     <t>/DocumentCurrencyCode</t>
@@ -294,64 +288,383 @@
     <t>/OrderReference/ID</t>
   </si>
   <si>
-    <t>ContractDocumentReference/ID/</t>
-  </si>
-  <si>
     <t>Zur Angabe alle anderen dem Rechnungsempfänger zugeordneten Ids.</t>
   </si>
   <si>
     <t>Basisbetrag, auf den sich die Steuer bezieht.</t>
   </si>
   <si>
-    <t>TaxTotal/TaxSubtotal/TaxAmount</t>
-  </si>
-  <si>
-    <t>TaxTotal/TaxSubtotal/TaxableAmount</t>
-  </si>
-  <si>
     <t>Steuerbetrag.</t>
   </si>
   <si>
-    <t>TaxTotal/TaxSubtotal/TaxCategory/Percent</t>
-  </si>
-  <si>
-    <t>TaxTotal/TaxSubtotal/TaxCategory/TaxScheme/ID</t>
-  </si>
-  <si>
-    <t>TaxTotal/TaxSubtotal/TaxCategory/ID[@schemaID]</t>
-  </si>
-  <si>
-    <t>TaxTotal/TaxSubtotal/TaxCategory/TaxScheme/ID[@schemaID='UN/ECE 5153']</t>
-  </si>
-  <si>
-    <t>TaxTotal/TaxSubtotal/TaxCategory/TaxScheme/ID[@schemaID='UN/ECE 5153 Subset']</t>
-  </si>
-  <si>
     <t>Umsatzsteuersatz</t>
   </si>
   <si>
-    <t>dient nur zur überprüfung</t>
-  </si>
-  <si>
-    <t>TaxTotal/TaxSubtotal/TaxCategory/ID</t>
-  </si>
-  <si>
-    <t>InvoiceLine/TaxTotal/TaxSubtotal/TaxCategory</t>
-  </si>
-  <si>
-    <t>InvoiceLine/TaxTotal/TaxSubtotal/ID</t>
-  </si>
-  <si>
-    <t>InvoiceLine/Item/ClassifiedTaxCategory/ID</t>
-  </si>
-  <si>
     <t>optional</t>
   </si>
   <si>
-    <t>"AT"+UVACode. ATXXX entspricht nicht steuerbar.</t>
-  </si>
-  <si>
-    <t>InvoiceLine/TaxTotal/TaxSubtotal[@schemaID]</t>
+    <t>Handelsübliche Bezeichnung des Artikels bzw. der Leistung.</t>
+  </si>
+  <si>
+    <t>Fortlaufende Positionsnummer.</t>
+  </si>
+  <si>
+    <t>optional zur Description</t>
+  </si>
+  <si>
+    <t>oder</t>
+  </si>
+  <si>
+    <t>Mengeneinheit in Freitext.</t>
+  </si>
+  <si>
+    <t>Verrechnete Menge.</t>
+  </si>
+  <si>
+    <t>wird ansonsten auf '1' gesetzt</t>
+  </si>
+  <si>
+    <t>Einzelpreis (Netto)</t>
+  </si>
+  <si>
+    <t>Gibt die Menge an, auf die sich der UnitPrice bezieht. Wird dieses Attribut nicht angegeben, so bezieht sich der UnitPrice immer auf die Menge 1.</t>
+  </si>
+  <si>
+    <t>Wenn '0' dann auch PriceAmount '0'</t>
+  </si>
+  <si>
+    <t>Betrag der Rechnungsposition (Netto)</t>
+  </si>
+  <si>
+    <t>Nummer der Bestellung beim Rechnungssteller</t>
+  </si>
+  <si>
+    <t>Positionsnummer der Bestellung beim Rechnungssteller</t>
+  </si>
+  <si>
+    <t>gibt an ob der Amount negiert werden soll</t>
+  </si>
+  <si>
+    <t>optional (wird sonst berechnet)</t>
+  </si>
+  <si>
+    <t>Betrag des Aufschlages oder Rabatts.</t>
+  </si>
+  <si>
+    <t>Gibt den Nettobasisbetrag an, auf den sich der Aufschlag oder Rabatt bezieht.</t>
+  </si>
+  <si>
+    <t>Prozentsatz des Aufschlages oder Rabatts.</t>
+  </si>
+  <si>
+    <t>Rechnungsbruttobetrag</t>
+  </si>
+  <si>
+    <t>Rechnungsbruttobetrag oder der zu zahlende Betrag.</t>
+  </si>
+  <si>
+    <t>Kommentar zur Zahlungsart.</t>
+  </si>
+  <si>
+    <t>Fälligkeitsdatum</t>
+  </si>
+  <si>
+    <t>Zahlungsreferenz (Kundendaten), die zur automatischen Verbuchung der Zahlungseingabe verwendet wird. Die entsprechenden Vorgaben der Stuzza1 sind zu berücksichtigen.</t>
+  </si>
+  <si>
+    <t>Bank Identification Code (BIC).</t>
+  </si>
+  <si>
+    <t>International Bank Account Number (IBAN)</t>
+  </si>
+  <si>
+    <t>Name des Kontoinhabers</t>
+  </si>
+  <si>
+    <t>Kommentar zu den Zahlungsbedingungen in Freitext.</t>
+  </si>
+  <si>
+    <t>Datum bis zu dem die Skontoprozente anwendbar sind.</t>
+  </si>
+  <si>
+    <t>Skontoprozente.</t>
+  </si>
+  <si>
+    <t>Betrag des Skontos.</t>
+  </si>
+  <si>
+    <t>Strafzuschläge werden in ebInterface nicht unterstützt.</t>
+  </si>
+  <si>
+    <t>Lieferdatum (wird alternativ zu Lieferperiode verwendet)</t>
+  </si>
+  <si>
+    <t>Firmen oder Personenname</t>
+  </si>
+  <si>
+    <t>Beginn der Lieferperiode (wird alternativ zu Lieferdatum verwendet)</t>
+  </si>
+  <si>
+    <t>Ende der Lieferperiode (wird alternativ zu Lieferdatum verwendet)</t>
+  </si>
+  <si>
+    <t>wird alternativ als Lieferdatum verwndet wenn EndDate nicht angegeben</t>
+  </si>
+  <si>
+    <t>/ContractDocumentReference/ID/</t>
+  </si>
+  <si>
+    <t>/TaxTotal/TaxSubtotal/TaxCategory/Percent</t>
+  </si>
+  <si>
+    <t>/TaxTotal/TaxSubtotal/TaxCategory/ID</t>
+  </si>
+  <si>
+    <t>/TaxTotal/TaxSubtotal/TaxCategory/TaxScheme/ID</t>
+  </si>
+  <si>
+    <t>/TaxTotal/TaxSubtotal/TaxAmount</t>
+  </si>
+  <si>
+    <t>/TaxTotal/TaxSubtotal/TaxableAmount</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/Item/ClassifiedTaxCategory/Percent</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/TaxTotal/TaxSubtotal/TaxCategory/Percent</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/TaxTotal/TaxSubtotal/TaxCategory/TaxScheme/ID</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/ID</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/Item/Description</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/Item/Name</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/InvoicedQuantity</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/InvoicedQuantity[@UnitCode]</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/Price/PriceAmount</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/Price/BaseQuantity</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/LineExtensionAmount</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/OrderLineReference/LineID</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/OrderLineReference/OrderReference/ID</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/AllowanceCharge/ChargeIndicator</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/AllowanceCharge/Amount</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/AllowanceCharge/BaseAmount</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/AllowanceCharge/MultiplierFactorNumeric</t>
+  </si>
+  <si>
+    <t>/LegalMonetaryTotal/LineExtensionAmount</t>
+  </si>
+  <si>
+    <t>/AllowanceCharge/Amount</t>
+  </si>
+  <si>
+    <t>/AllowanceCharge/BaseAmount</t>
+  </si>
+  <si>
+    <t>/AllowanceCharge/MultiplierFactorNumericValue</t>
+  </si>
+  <si>
+    <t>/AllowanceCharge/TaxCategory/Percent</t>
+  </si>
+  <si>
+    <t>/LegalMonetaryTotal/PrepaidAmount</t>
+  </si>
+  <si>
+    <t>/LegalMonetaryTotal/TaxInclusiveAmount</t>
+  </si>
+  <si>
+    <t>/LegalMonetaryTotal/PayableAmount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PaymentMeans/PaymentMeansCode </t>
+  </si>
+  <si>
+    <t>/PaymentMeans/PaymentChannelCode</t>
+  </si>
+  <si>
+    <t>/PaymentMeans/PaymentID</t>
+  </si>
+  <si>
+    <t>/PaymentMeans/PayeeFinancialAccount/ID</t>
+  </si>
+  <si>
+    <t>/PaymentMeans/FinancialInstitutionBranch/FinancialInstitution/ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PayeeParty/PartyName </t>
+  </si>
+  <si>
+    <t>/AccountingSupplierParty/Party/PartyName</t>
+  </si>
+  <si>
+    <t>/PaymentMeans/InstructionNote</t>
+  </si>
+  <si>
+    <t>/PaymentMeans/PaymentDueDate</t>
+  </si>
+  <si>
+    <t>/PaymentTerms/Note</t>
+  </si>
+  <si>
+    <t>/PaymentTerms/SettlementDiscountPercent</t>
+  </si>
+  <si>
+    <t>/PaymentTerms/SettlementPeriod/EndDate</t>
+  </si>
+  <si>
+    <t>/PaymentTerms/Amount</t>
+  </si>
+  <si>
+    <t>/PaymentTerms/PenaltySurchargePercent</t>
+  </si>
+  <si>
+    <t>/Delivery/ActualDeliveryDate</t>
+  </si>
+  <si>
+    <t>/Delivery/DeliveryLocation/Address/StreetName</t>
+  </si>
+  <si>
+    <t>/Delivery/DeliveryLocation/Address/StreetName
+/Delivery/DeliveryLocation/Address/BuildingNumber</t>
+  </si>
+  <si>
+    <t>/Delivery/DeliveryParty/PartyName</t>
+  </si>
+  <si>
+    <t>/InvoicePeriod/StartDate</t>
+  </si>
+  <si>
+    <t>/InvoicePeriod/EndDate</t>
+  </si>
+  <si>
+    <t>/Delivery/DeliveryLocation/Address/Postbox</t>
+  </si>
+  <si>
+    <t>/Delivery/DeliveryLocation/Address/CityName</t>
+  </si>
+  <si>
+    <t>/Delivery/DeliveryLocation/Address/PostalZone</t>
+  </si>
+  <si>
+    <t>Postleitzahl</t>
+  </si>
+  <si>
+    <t>Stadt</t>
+  </si>
+  <si>
+    <t>Postfach</t>
+  </si>
+  <si>
+    <t>Wird zusammen gefasst zur Straße inkl. Hausnummer</t>
+  </si>
+  <si>
+    <t>Ländercode</t>
+  </si>
+  <si>
+    <t>/Delivery/DeliveryLocation/Address/Country/IdentificationCode</t>
+  </si>
+  <si>
+    <t>/Delivery/DeliveryLocation/Address/Country/Country/Name</t>
+  </si>
+  <si>
+    <t>Land (Freitext)</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/Item/ClassifiedTaxCategory/ID</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/Item/ClassifiedTaxCategory/TaxScheme/ID</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/TaxTotal/TaxSubtotal/TaxCategory/ID</t>
+  </si>
+  <si>
+    <t>wird nicht unterstützt, darf nicht ungleich '0' sein</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/Item/ClassifiedTaxCategory/ID[@schemeID]</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/Item/ClassifiedTaxCategory/TaxScheme/ID[@schemeID='UN/ECE 5153']</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/TaxTotal/TaxSubtotal/TaxCategory/ID[@schemeID]</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/TaxTotal/TaxSubtotal/TaxCategory/TaxScheme/ID[@schemeID='UN/ECE 5153']</t>
+  </si>
+  <si>
+    <t>Muss 'VAT' sein</t>
+  </si>
+  <si>
+    <t>Muss 'UN/ECE 5305' sein</t>
+  </si>
+  <si>
+    <t>/TaxTotal/TaxSubtotal/TaxCategory/ID/@schemeID</t>
+  </si>
+  <si>
+    <t>Muss 'S' für Standardsatz sein.</t>
+  </si>
+  <si>
+    <t>Muss 'UN/ECE 5153' oder 'UN/ECE 5153 Subset' sein</t>
+  </si>
+  <si>
+    <t>/TaxTotal/TaxSubtotal/TaxCategory/TaxScheme/ID/@schemeID</t>
+  </si>
+  <si>
+    <t>Muss den Wert '2.0' haben</t>
+  </si>
+  <si>
+    <t>Muss den Wert '380' haben</t>
+  </si>
+  <si>
+    <t>optional: muss 'VAT' sein</t>
+  </si>
+  <si>
+    <t>optional: ansonsten 'one'</t>
+  </si>
+  <si>
+    <t>wird zur Darstellung in % mal '100' gerechnet; ggf. negiert</t>
+  </si>
+  <si>
+    <t>Gibt an, wie die Rechnung bezahlt werden soll. Zurzeit stehen folgende Zahlungsoptionen zur Auswahl: 31 für 'Debit transfer', 49 für 'Direct debit' oder noPayment wenn zu zahlender Betrag &lt; 0</t>
+  </si>
+  <si>
+    <t>entweder 31 für 'Debit transfer', 49 für 'Direct debit', anderfalls ERROR oder noPayment falls zu zahlender Betrag &lt; '0'</t>
+  </si>
+  <si>
+    <t>Gibt die Bezahlungsart bei 'Debit transfer' an, muss 'IBAN' sein.</t>
+  </si>
+  <si>
+    <t>muss 'IBAN' sein</t>
   </si>
 </sst>
 </file>
@@ -404,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -420,6 +733,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,15 +1038,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="84.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="90.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.42578125" style="1" customWidth="1"/>
@@ -749,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -763,464 +1079,922 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>105</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>100</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>90</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>105</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>193</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C77" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>48</v>
+        <v>150</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/java/ubl2ebinterface/mapping.xlsx
+++ b/java/ubl2ebinterface/mapping.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mapping!$A$2:$D$114</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="229">
   <si>
     <t>UBL-Feld</t>
   </si>
@@ -71,9 +74,6 @@
   </si>
   <si>
     <t>Die Lieferantennummer (Nummer des Lieferanten im System des Rechnungsempfängers)</t>
-  </si>
-  <si>
-    <t>/AccountingSupplierParty/Party/PartyName[0]/Name</t>
   </si>
   <si>
     <t>Name des Rechnungsstellers</t>
@@ -159,9 +159,6 @@
     <t>/AccountingSupplierParty/Party/PartyIdentification/ID[@schemeID='ProprietaryAddressID']</t>
   </si>
   <si>
-    <t>to be continued</t>
-  </si>
-  <si>
     <t>Codelist</t>
   </si>
   <si>
@@ -226,9 +223,6 @@
     <t>/AccountingCustomerParty/Party/PartyTaxScheme[TaxScheme/ID[text()='VAT']]/CompanyID</t>
   </si>
   <si>
-    <t>/AccountingCustomerParty/Party/PartyName[0]/Name</t>
-  </si>
-  <si>
     <t>/AccountingCustomerParty/Party/Contact/Telephone</t>
   </si>
   <si>
@@ -288,9 +282,6 @@
     <t>/OrderReference/ID</t>
   </si>
   <si>
-    <t>Zur Angabe alle anderen dem Rechnungsempfänger zugeordneten Ids.</t>
-  </si>
-  <si>
     <t>Basisbetrag, auf den sich die Steuer bezieht.</t>
   </si>
   <si>
@@ -306,15 +297,9 @@
     <t>Handelsübliche Bezeichnung des Artikels bzw. der Leistung.</t>
   </si>
   <si>
-    <t>Fortlaufende Positionsnummer.</t>
-  </si>
-  <si>
     <t>optional zur Description</t>
   </si>
   <si>
-    <t>oder</t>
-  </si>
-  <si>
     <t>Mengeneinheit in Freitext.</t>
   </si>
   <si>
@@ -330,21 +315,6 @@
     <t>Gibt die Menge an, auf die sich der UnitPrice bezieht. Wird dieses Attribut nicht angegeben, so bezieht sich der UnitPrice immer auf die Menge 1.</t>
   </si>
   <si>
-    <t>Wenn '0' dann auch PriceAmount '0'</t>
-  </si>
-  <si>
-    <t>Betrag der Rechnungsposition (Netto)</t>
-  </si>
-  <si>
-    <t>Nummer der Bestellung beim Rechnungssteller</t>
-  </si>
-  <si>
-    <t>Positionsnummer der Bestellung beim Rechnungssteller</t>
-  </si>
-  <si>
-    <t>gibt an ob der Amount negiert werden soll</t>
-  </si>
-  <si>
     <t>optional (wird sonst berechnet)</t>
   </si>
   <si>
@@ -360,27 +330,18 @@
     <t>Rechnungsbruttobetrag</t>
   </si>
   <si>
-    <t>Rechnungsbruttobetrag oder der zu zahlende Betrag.</t>
-  </si>
-  <si>
     <t>Kommentar zur Zahlungsart.</t>
   </si>
   <si>
     <t>Fälligkeitsdatum</t>
   </si>
   <si>
-    <t>Zahlungsreferenz (Kundendaten), die zur automatischen Verbuchung der Zahlungseingabe verwendet wird. Die entsprechenden Vorgaben der Stuzza1 sind zu berücksichtigen.</t>
-  </si>
-  <si>
     <t>Bank Identification Code (BIC).</t>
   </si>
   <si>
     <t>International Bank Account Number (IBAN)</t>
   </si>
   <si>
-    <t>Name des Kontoinhabers</t>
-  </si>
-  <si>
     <t>Kommentar zu den Zahlungsbedingungen in Freitext.</t>
   </si>
   <si>
@@ -393,21 +354,12 @@
     <t>Betrag des Skontos.</t>
   </si>
   <si>
-    <t>Strafzuschläge werden in ebInterface nicht unterstützt.</t>
-  </si>
-  <si>
     <t>Lieferdatum (wird alternativ zu Lieferperiode verwendet)</t>
   </si>
   <si>
     <t>Firmen oder Personenname</t>
   </si>
   <si>
-    <t>Beginn der Lieferperiode (wird alternativ zu Lieferdatum verwendet)</t>
-  </si>
-  <si>
-    <t>Ende der Lieferperiode (wird alternativ zu Lieferdatum verwendet)</t>
-  </si>
-  <si>
     <t>wird alternativ als Lieferdatum verwndet wenn EndDate nicht angegeben</t>
   </si>
   <si>
@@ -450,9 +402,6 @@
     <t>/InvoiceLine/InvoicedQuantity</t>
   </si>
   <si>
-    <t>/InvoiceLine/InvoicedQuantity[@UnitCode]</t>
-  </si>
-  <si>
     <t>/InvoiceLine/Price/PriceAmount</t>
   </si>
   <si>
@@ -514,12 +463,6 @@
   </si>
   <si>
     <t>/PaymentMeans/PayeeFinancialAccount/ID</t>
-  </si>
-  <si>
-    <t>/PaymentMeans/FinancialInstitutionBranch/FinancialInstitution/ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/PayeeParty/PartyName </t>
   </si>
   <si>
     <t>/AccountingSupplierParty/Party/PartyName</t>
@@ -607,21 +550,6 @@
     <t>/InvoiceLine/TaxTotal/TaxSubtotal/TaxCategory/ID</t>
   </si>
   <si>
-    <t>wird nicht unterstützt, darf nicht ungleich '0' sein</t>
-  </si>
-  <si>
-    <t>/InvoiceLine/Item/ClassifiedTaxCategory/ID[@schemeID]</t>
-  </si>
-  <si>
-    <t>/InvoiceLine/Item/ClassifiedTaxCategory/TaxScheme/ID[@schemeID='UN/ECE 5153']</t>
-  </si>
-  <si>
-    <t>/InvoiceLine/TaxTotal/TaxSubtotal/TaxCategory/ID[@schemeID]</t>
-  </si>
-  <si>
-    <t>/InvoiceLine/TaxTotal/TaxSubtotal/TaxCategory/TaxScheme/ID[@schemeID='UN/ECE 5153']</t>
-  </si>
-  <si>
     <t>Muss 'VAT' sein</t>
   </si>
   <si>
@@ -646,25 +574,151 @@
     <t>Muss den Wert '380' haben</t>
   </si>
   <si>
-    <t>optional: muss 'VAT' sein</t>
-  </si>
-  <si>
     <t>optional: ansonsten 'one'</t>
   </si>
   <si>
-    <t>wird zur Darstellung in % mal '100' gerechnet; ggf. negiert</t>
-  </si>
-  <si>
-    <t>Gibt an, wie die Rechnung bezahlt werden soll. Zurzeit stehen folgende Zahlungsoptionen zur Auswahl: 31 für 'Debit transfer', 49 für 'Direct debit' oder noPayment wenn zu zahlender Betrag &lt; 0</t>
-  </si>
-  <si>
-    <t>entweder 31 für 'Debit transfer', 49 für 'Direct debit', anderfalls ERROR oder noPayment falls zu zahlender Betrag &lt; '0'</t>
-  </si>
-  <si>
-    <t>Gibt die Bezahlungsart bei 'Debit transfer' an, muss 'IBAN' sein.</t>
-  </si>
-  <si>
     <t>muss 'IBAN' sein</t>
+  </si>
+  <si>
+    <t>Enthält die Verweise auf die zugrunde liegenden Rahmenverträge.</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/Item/ClassifiedTaxCategory/TaxScheme/ID/@schemeID</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/Item/ClassifiedTaxCategory/ID/@schemeID</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/TaxTotal/TaxSubtotal/TaxCategory/ID/@schemeID</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/TaxTotal/TaxSubtotal/TaxCategory/TaxScheme/ID/@schemeID</t>
+  </si>
+  <si>
+    <t>Positionsnummer der Rechnungszeile. Sollte eindeutig sein.</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/InvoicedQuantity/@UnitCode</t>
+  </si>
+  <si>
+    <t>Wenn '0' dann wird auch der PriceAmount als '0' interprertiert.</t>
+  </si>
+  <si>
+    <t>Nummer der Bestellung beim Rechnungssteller.</t>
+  </si>
+  <si>
+    <t>Gesamtbetrag der Rechnungsposition (Netto).</t>
+  </si>
+  <si>
+    <t>Positionsnummer der Bestellung beim Rechnungssteller.</t>
+  </si>
+  <si>
+    <t>Gibt an ob es sich um einen Aufschlag ('true') oder einen Rabatt ('false') handelt.</t>
+  </si>
+  <si>
+    <t>wird zur Darstellung in % mal '100' gerechnet</t>
+  </si>
+  <si>
+    <t>Gibt die Summe der Rechnungszeilen an (netto).</t>
+  </si>
+  <si>
+    <t>/AllowanceCharge/ChargeIndicator</t>
+  </si>
+  <si>
+    <t>/AllowanceCharge</t>
+  </si>
+  <si>
+    <t>Enthält Informationen zu globalen Aufschlägen und Rabatten.</t>
+  </si>
+  <si>
+    <t>Umsatzsteuersatz auf den sich der Aufschlag oder Rabatt bezieht.</t>
+  </si>
+  <si>
+    <t>Gibt einen bereits bezahlten Betrag an.</t>
+  </si>
+  <si>
+    <t>wird nicht unterstützt, darf aber '0' sein.</t>
+  </si>
+  <si>
+    <t>Der gesamte zu zahlende Betrag.</t>
+  </si>
+  <si>
+    <t>Ist für gewöhnlich identisch mit dem TaxInclusiveAmount</t>
+  </si>
+  <si>
+    <t>Gibt an, wie die Rechnung bezahlt werden soll.</t>
+  </si>
+  <si>
+    <t>Gibt die Bezahlungsart bei 'Debit transfer' an.</t>
+  </si>
+  <si>
+    <t>Zahlungsreferenz (Kundendaten), die zur automatischen Verbuchung der Zahlungseingabe verwendet wird. Die entsprechenden Vorgaben der Stuzza sind zu berücksichtigen.</t>
+  </si>
+  <si>
+    <t>Muss ein Wert zwischen 0 und 100 sein.</t>
+  </si>
+  <si>
+    <t>Ende des Leistungszeitraums (wird alternativ zu Lieferdatum verwendet)</t>
+  </si>
+  <si>
+    <t>Beginn des Leistungszeitraums (wird alternativ zu Lieferdatum verwendet)</t>
+  </si>
+  <si>
+    <t>Verwendete UBL-Version</t>
+  </si>
+  <si>
+    <t>Umsatzsteuersatz in Prozent</t>
+  </si>
+  <si>
+    <t>Strafzuschläge werden nicht unterstützt.</t>
+  </si>
+  <si>
+    <t>/PaymentTerms</t>
+  </si>
+  <si>
+    <t>Zahlungsbedingungen (Skonto)</t>
+  </si>
+  <si>
+    <t>Muss nach dem Rechnungsdatum liegen</t>
+  </si>
+  <si>
+    <t>Zu verwendendens PEPPOL-Profil</t>
+  </si>
+  <si>
+    <t>/PaymentMeans</t>
+  </si>
+  <si>
+    <t>Zahlungsart</t>
+  </si>
+  <si>
+    <t>Zurzeit stehen folgende Zahlungsoptionen zur Auswahl: 31 für 'Debit transfer', 49 für 'Direct debit' oder automatisch "No Payment" wenn der zu zahlende Betrag 0 ist.</t>
+  </si>
+  <si>
+    <t>Gilt für alle unterstützten Zahlungsarten.</t>
+  </si>
+  <si>
+    <t>/PaymentMeans/PayeeFinancialAccount/FinancialInstitutionBranch/FinancialInstitution/ID</t>
+  </si>
+  <si>
+    <t>8 oder 11-stelliger Wert</t>
+  </si>
+  <si>
+    <t>Name des Zahlungsempfängers bei Verwendung von "Debit transfer"</t>
+  </si>
+  <si>
+    <t>Falls dieses Feld nicht vorhanden ist, wird /AccountingSupplierParty/Party/PartyName/Name verwendet</t>
+  </si>
+  <si>
+    <t>/PayeeParty/PartyName/Name</t>
+  </si>
+  <si>
+    <t>/AccountingSupplierParty/Party/PartyName/Name</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/Party/PartyName/Name</t>
+  </si>
+  <si>
+    <t>Mehere E-Mail-Adressen können durch Komma oder Semikolon getrennt angegeben werden</t>
   </si>
 </sst>
 </file>
@@ -731,11 +785,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1038,27 +1092,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D116"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="84.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1071,937 +1129,996 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>227</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="225" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="330" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="345" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B60" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="C64" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>169</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>114</v>
+        <v>223</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>117</v>
+        <v>205</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>121</v>
+        <v>213</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>184</v>
+        <v>151</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>46</v>
+      <c r="C113" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:D114">
+    <sortState ref="A3:D113">
+      <sortCondition ref="A2:A113"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/java/ubl2ebinterface/mapping.xlsx
+++ b/java/ubl2ebinterface/mapping.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mapping!$A$2:$D$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mapping!$A$2:$F$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="330">
   <si>
     <t>UBL-Feld</t>
   </si>
@@ -360,9 +360,6 @@
     <t>Firmen oder Personenname</t>
   </si>
   <si>
-    <t>wird alternativ als Lieferdatum verwndet wenn EndDate nicht angegeben</t>
-  </si>
-  <si>
     <t>/ContractDocumentReference/ID/</t>
   </si>
   <si>
@@ -607,9 +604,6 @@
     <t>Nummer der Bestellung beim Rechnungssteller.</t>
   </si>
   <si>
-    <t>Gesamtbetrag der Rechnungsposition (Netto).</t>
-  </si>
-  <si>
     <t>Positionsnummer der Bestellung beim Rechnungssteller.</t>
   </si>
   <si>
@@ -691,9 +685,6 @@
     <t>Zahlungsart</t>
   </si>
   <si>
-    <t>Zurzeit stehen folgende Zahlungsoptionen zur Auswahl: 31 für 'Debit transfer', 49 für 'Direct debit' oder automatisch "No Payment" wenn der zu zahlende Betrag 0 ist.</t>
-  </si>
-  <si>
     <t>Gilt für alle unterstützten Zahlungsarten.</t>
   </si>
   <si>
@@ -719,6 +710,318 @@
   </si>
   <si>
     <t>Mehere E-Mail-Adressen können durch Komma oder Semikolon getrennt angegeben werden</t>
+  </si>
+  <si>
+    <t>Comment EN</t>
+  </si>
+  <si>
+    <t>Semantics EN</t>
+  </si>
+  <si>
+    <t>invoice recipient</t>
+  </si>
+  <si>
+    <t>multiple e-mail addresses can be seperated by comma or semocolon</t>
+  </si>
+  <si>
+    <t>phone number of the invoice recipient</t>
+  </si>
+  <si>
+    <t>e-mail address  of the invoice recipient</t>
+  </si>
+  <si>
+    <t>DUNS number of the invoice recipient</t>
+  </si>
+  <si>
+    <t>GLN number of the invoice recipient</t>
+  </si>
+  <si>
+    <t>other address ID of the invoice recipient</t>
+  </si>
+  <si>
+    <t>name of the invoice recipient</t>
+  </si>
+  <si>
+    <t>UID number of the invoice recipient</t>
+  </si>
+  <si>
+    <t>city  of the invoice recipient</t>
+  </si>
+  <si>
+    <t>country name of the invoice recipient</t>
+  </si>
+  <si>
+    <t>country code of the invoice recipient</t>
+  </si>
+  <si>
+    <t>P.O. box of the invoice recipient</t>
+  </si>
+  <si>
+    <t>will be summarized to the contact person of the invoice recipient</t>
+  </si>
+  <si>
+    <t>will be summarized to the street of the invoice recipient</t>
+  </si>
+  <si>
+    <t>number of the invoice recipient in the system of the biller (costumer number)</t>
+  </si>
+  <si>
+    <t>informationen on the biller</t>
+  </si>
+  <si>
+    <t>the number of the biller (number of the biller in the system of the invoice recipient)</t>
+  </si>
+  <si>
+    <t>e-mail address  of the biller</t>
+  </si>
+  <si>
+    <t>phone number of the biller</t>
+  </si>
+  <si>
+    <t>DUNS number of the biller</t>
+  </si>
+  <si>
+    <t>GLN number of the biller</t>
+  </si>
+  <si>
+    <t>other address ID of the biller</t>
+  </si>
+  <si>
+    <t>name of the biller</t>
+  </si>
+  <si>
+    <t>UID number of the biller</t>
+  </si>
+  <si>
+    <t>will be summarized to the contact person of the biller</t>
+  </si>
+  <si>
+    <t>city  of the biller</t>
+  </si>
+  <si>
+    <t>country code of the biller</t>
+  </si>
+  <si>
+    <t>country name of the biller</t>
+  </si>
+  <si>
+    <t>P.O. box of the biller</t>
+  </si>
+  <si>
+    <t>will be summarized to the street of the biller</t>
+  </si>
+  <si>
+    <t>optinal</t>
+  </si>
+  <si>
+    <t>will be multiplied by '100'  for the representation in %</t>
+  </si>
+  <si>
+    <t>contains information about global surcharges and reductions</t>
+  </si>
+  <si>
+    <t>amount of the surcharge or reduction</t>
+  </si>
+  <si>
+    <t>specifies the net base amount to which the surcharge or reduction relates.</t>
+  </si>
+  <si>
+    <t>specifies if there is a surcharge ('true') or reduction ('false').</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage of the surcharge or reduction. </t>
+  </si>
+  <si>
+    <t>VAT amount to which the surcharge or reduction relates.</t>
+  </si>
+  <si>
+    <t>contains references to the underlying master agreements.</t>
+  </si>
+  <si>
+    <t>date of delivery (is used alternatively to the delivery period)</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>country code</t>
+  </si>
+  <si>
+    <t>invoice number</t>
+  </si>
+  <si>
+    <t>optional (otherwise calculated)</t>
+  </si>
+  <si>
+    <t>position number of the invoice line. Should be unique</t>
+  </si>
+  <si>
+    <t>cleared amount</t>
+  </si>
+  <si>
+    <t>otherwise set to '1'</t>
+  </si>
+  <si>
+    <t>oprional: otherwise set to 'one'</t>
+  </si>
+  <si>
+    <t>unit in free text</t>
+  </si>
+  <si>
+    <t>must be 'S' for standard rate</t>
+  </si>
+  <si>
+    <t>must be 'UN/ECE 5305'</t>
+  </si>
+  <si>
+    <t>VAT rate</t>
+  </si>
+  <si>
+    <t>value must be between '0' and '100'</t>
+  </si>
+  <si>
+    <t>must be 'VAT'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">must be 'UN/ECE 5153' or 'UN/ECE 5153 Subset' </t>
+  </si>
+  <si>
+    <t>commercial designation of the article or the service</t>
+  </si>
+  <si>
+    <t>optional to Description</t>
+  </si>
+  <si>
+    <t>Gesamtnettobetrag der Rechnungsposition.</t>
+  </si>
+  <si>
+    <t>total net amount of this inoice line item</t>
+  </si>
+  <si>
+    <t>position number of the order from the biller</t>
+  </si>
+  <si>
+    <t>number of the order from the biller</t>
+  </si>
+  <si>
+    <t>if '0' then the PriceAmount will also be interpreted as '0'</t>
+  </si>
+  <si>
+    <t>specifies the amount to which the UnitPrice relates. If this attribute is not set the UnitPrice will be set to '1'</t>
+  </si>
+  <si>
+    <t>unit price (net)</t>
+  </si>
+  <si>
+    <t>wird alternativ als Lieferdatum verwendet wenn EndDate nicht angegeben</t>
+  </si>
+  <si>
+    <t>end of the delivery period (is used alternatively to the delivery date)</t>
+  </si>
+  <si>
+    <t>is used alternatively as the delivery date if EndDate is not set</t>
+  </si>
+  <si>
+    <t>begin of the delivery period (is used alternatively to the delivery date)</t>
+  </si>
+  <si>
+    <t>must be '380'</t>
+  </si>
+  <si>
+    <t>invoice date</t>
+  </si>
+  <si>
+    <t>specifies te sum of the invoice lines (net)</t>
+  </si>
+  <si>
+    <t>the total amount to be paid</t>
+  </si>
+  <si>
+    <t>normaly identic to TaxInclusiveAmount</t>
+  </si>
+  <si>
+    <t>specifies an amount already paid</t>
+  </si>
+  <si>
+    <t>is not supported, but can be '0'</t>
+  </si>
+  <si>
+    <t>invoice total gross amount</t>
+  </si>
+  <si>
+    <t>order number (order referenz)</t>
+  </si>
+  <si>
+    <t>name of the payee if 'debit transfer' is used</t>
+  </si>
+  <si>
+    <t>if this field is missing /AccountingSupplierParty/Party/PartyName/Name will be used</t>
+  </si>
+  <si>
+    <t>payment method</t>
+  </si>
+  <si>
+    <t>comment on the payment method</t>
+  </si>
+  <si>
+    <t>used for all supported payment methods</t>
+  </si>
+  <si>
+    <t>8 or 11 digit number</t>
+  </si>
+  <si>
+    <t>specifies the payment method 'debit transfer'</t>
+  </si>
+  <si>
+    <t>must be 'IBAN'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment reference (costumer data), which are used for the automatic booking of the payment. The respective standards of Stuzza must be considered. </t>
+  </si>
+  <si>
+    <t>specifies how the invoice should be paid</t>
+  </si>
+  <si>
+    <t>Zurzeit stehen folgende Zahlungsmethoden zur Auswahl: 31 für 'Debit transfer', 49 für 'Direct debit' oder automatisch "No Payment" wenn der zu zahlende Betrag 0 ist.</t>
+  </si>
+  <si>
+    <t>Currently the following payment methods are available: 31 fpr 'debit transfer', 49 for 'direct debit' or default "No Payment" if the total amount to be paid is '0'</t>
+  </si>
+  <si>
+    <t>conditions of payment (discount)</t>
+  </si>
+  <si>
+    <t>discount amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comment on  the payment conditions in free text. </t>
+  </si>
+  <si>
+    <t>must be after the invoice date</t>
+  </si>
+  <si>
+    <t>penalties are not supported</t>
+  </si>
+  <si>
+    <t>discount percentages</t>
+  </si>
+  <si>
+    <t>date up to which the discount percentages are applicable</t>
+  </si>
+  <si>
+    <t>base amount to which the tax relates</t>
+  </si>
+  <si>
+    <t>VAT rate in percent</t>
+  </si>
+  <si>
+    <t>used UBL version</t>
+  </si>
+  <si>
+    <t>must be '2.0'</t>
   </si>
 </sst>
 </file>
@@ -771,7 +1074,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -790,6 +1093,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,1028 +1401,1511 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="84.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="32.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E22" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E27" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E28" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E29" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E30" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B32" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E33" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+      <c r="E35" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E38" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E39" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E45" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="330" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1"/>
+      <c r="C55" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="345" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1"/>
+      <c r="C57" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="B59" s="1"/>
+      <c r="C59" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1"/>
+      <c r="C61" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D61" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="D65" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="D66" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="D68" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="D69" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="B70" s="1"/>
+      <c r="C70" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="B76" s="1"/>
+      <c r="C76" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="D77" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="D78" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="D80" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="D81" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="5" t="s">
+      <c r="F81" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+      <c r="D84" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1"/>
+      <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="E85" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>195</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B86" s="1"/>
       <c r="C86" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="E86" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>202</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B87" s="1"/>
       <c r="C87" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1"/>
+      <c r="C89" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E89" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1"/>
+      <c r="C90" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="E90" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>223</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B91" s="1"/>
       <c r="C91" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="E93" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="B94" s="1"/>
+      <c r="C94" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="B97" s="1"/>
+      <c r="C97" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="B98" s="1"/>
+      <c r="C98" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="B102" s="1"/>
+      <c r="C102" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="D103" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E105" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D106" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C106" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B107" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B108" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D112" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="D113" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F113" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C114" s="2" t="s">
-        <v>178</v>
+        <v>208</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D114">
-    <sortState ref="A3:D113">
-      <sortCondition ref="A2:A113"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A2:F2"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/java/ubl2ebinterface/mapping.xlsx
+++ b/java/ubl2ebinterface/mapping.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="329">
   <si>
     <t>UBL-Feld</t>
   </si>
@@ -487,9 +487,6 @@
   </si>
   <si>
     <t>/Delivery/ActualDeliveryDate</t>
-  </si>
-  <si>
-    <t>/Delivery/DeliveryLocation/Address/StreetName</t>
   </si>
   <si>
     <t>/Delivery/DeliveryLocation/Address/StreetName
@@ -1092,10 +1089,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1401,11 +1398,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,12 +1417,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1441,10 +1438,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1456,7 +1453,7 @@
         <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1468,13 +1465,13 @@
         <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1486,7 +1483,7 @@
         <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1498,7 +1495,7 @@
         <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1510,7 +1507,7 @@
         <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1522,7 +1519,7 @@
         <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1534,7 +1531,7 @@
         <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1546,7 +1543,7 @@
         <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1558,19 +1555,19 @@
         <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1582,7 +1579,7 @@
         <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -1594,7 +1591,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1606,7 +1603,7 @@
         <v>57</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -1620,7 +1617,7 @@
         <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1632,7 +1629,7 @@
         <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1644,7 +1641,7 @@
         <v>56</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1656,7 +1653,7 @@
         <v>55</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1668,7 +1665,7 @@
         <v>80</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1680,7 +1677,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1692,7 +1689,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1704,7 +1701,7 @@
         <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1716,7 +1713,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1728,7 +1725,7 @@
         <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1740,7 +1737,7 @@
         <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1752,7 +1749,7 @@
         <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1764,7 +1761,7 @@
         <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1776,7 +1773,7 @@
         <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1788,7 +1785,7 @@
         <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1800,19 +1797,19 @@
         <v>19</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1824,7 +1821,7 @@
         <v>16</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -1836,7 +1833,7 @@
         <v>35</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1848,7 +1845,7 @@
         <v>29</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -1862,7 +1859,7 @@
         <v>31</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1874,7 +1871,7 @@
         <v>33</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1886,7 +1883,7 @@
         <v>27</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1898,25 +1895,25 @@
         <v>25</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1928,7 +1925,7 @@
         <v>95</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1940,19 +1937,19 @@
         <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1964,13 +1961,13 @@
         <v>97</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1979,10 +1976,10 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1991,10 +1988,10 @@
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2006,269 +2003,275 @@
         <v>107</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B55" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C55" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B56" s="1"/>
       <c r="C56" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="F58" s="2" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>273</v>
-      </c>
     </row>
     <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>264</v>
       </c>
+      <c r="F60" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
-        <v>186</v>
+        <v>90</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F62" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E64" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B65" s="1"/>
       <c r="D65" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="B66" s="1"/>
-      <c r="D66" s="2" t="s">
-        <v>172</v>
+      <c r="C66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="B67" s="1"/>
-      <c r="C67" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>281</v>
+      <c r="D67" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B68" s="1"/>
       <c r="D68" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>283</v>
@@ -2276,53 +2279,53 @@
     </row>
     <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="B69" s="1"/>
-      <c r="D69" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="C69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="D70" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="E70" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>286</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="2" t="s">
-        <v>287</v>
+        <v>189</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>288</v>
@@ -2330,107 +2333,107 @@
     </row>
     <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="2" t="s">
-        <v>189</v>
+        <v>93</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="B76" s="1"/>
-      <c r="C76" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B77" s="1"/>
       <c r="D77" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="B78" s="1"/>
-      <c r="D78" s="2" t="s">
-        <v>172</v>
+      <c r="C78" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B79" s="1"/>
-      <c r="C79" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>281</v>
+      <c r="D79" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="B80" s="1"/>
       <c r="D80" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>283</v>
@@ -2438,191 +2441,197 @@
     </row>
     <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="B81" s="1"/>
-      <c r="D81" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C81" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="D82" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="E82" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="D83" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E83" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B84" s="1"/>
-      <c r="D84" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F84" s="2" t="s">
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>192</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F85" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>300</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F88" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="2" t="s">
-        <v>81</v>
+        <v>219</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F90" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F91" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>216</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F92" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>310</v>
+        <v>101</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>311</v>
@@ -2630,110 +2639,104 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>312</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>102</v>
+        <v>202</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="2" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F97" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="F98" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>317</v>
+        <v>211</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F99" s="2" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="2" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>320</v>
@@ -2741,165 +2744,153 @@
     </row>
     <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D102" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="D103" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F103" s="2" t="s">
+      <c r="C103" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F104" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B105" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C105" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D105" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="2" t="s">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>172</v>
+        <v>110</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>327</v>
+        <v>112</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>112</v>
-      </c>
+    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B112" s="1"/>
       <c r="D112" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="D113" s="2" t="s">
-        <v>175</v>
+      <c r="E113" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E114" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/java/ubl2ebinterface/mapping.xlsx
+++ b/java/ubl2ebinterface/mapping.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="342">
   <si>
     <t>UBL-Feld</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>/AccountingSupplierParty/CustomerAssignedAccountID</t>
-  </si>
-  <si>
-    <t>Die Lieferantennummer (Nummer des Lieferanten im System des Rechnungsempfängers)</t>
   </si>
   <si>
     <t>Name des Rechnungsstellers</t>
@@ -511,30 +508,12 @@
     <t>/Delivery/DeliveryLocation/Address/PostalZone</t>
   </si>
   <si>
-    <t>Postleitzahl</t>
-  </si>
-  <si>
-    <t>Stadt</t>
-  </si>
-  <si>
-    <t>Postfach</t>
-  </si>
-  <si>
-    <t>Wird zusammen gefasst zur Straße inkl. Hausnummer</t>
-  </si>
-  <si>
-    <t>Ländercode</t>
-  </si>
-  <si>
     <t>/Delivery/DeliveryLocation/Address/Country/IdentificationCode</t>
   </si>
   <si>
     <t>/Delivery/DeliveryLocation/Address/Country/Country/Name</t>
   </si>
   <si>
-    <t>Land (Freitext)</t>
-  </si>
-  <si>
     <t>/InvoiceLine/Item/ClassifiedTaxCategory/ID</t>
   </si>
   <si>
@@ -601,9 +580,6 @@
     <t>Nummer der Bestellung beim Rechnungssteller.</t>
   </si>
   <si>
-    <t>Positionsnummer der Bestellung beim Rechnungssteller.</t>
-  </si>
-  <si>
     <t>Gibt an ob es sich um einen Aufschlag ('true') oder einen Rabatt ('false') handelt.</t>
   </si>
   <si>
@@ -757,9 +733,6 @@
     <t>will be summarized to the contact person of the invoice recipient</t>
   </si>
   <si>
-    <t>will be summarized to the street of the invoice recipient</t>
-  </si>
-  <si>
     <t>number of the invoice recipient in the system of the biller (costumer number)</t>
   </si>
   <si>
@@ -838,15 +811,6 @@
     <t>date of delivery (is used alternatively to the delivery period)</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>country code</t>
-  </si>
-  <si>
     <t>invoice number</t>
   </si>
   <si>
@@ -1019,6 +983,81 @@
   </si>
   <si>
     <t>must be '2.0'</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/Party/PostalAddress/PostalZone</t>
+  </si>
+  <si>
+    <t>Postal code of the invoice recipient</t>
+  </si>
+  <si>
+    <t>/AccountingSupplierParty/Party/PostalAddress/PostalZone</t>
+  </si>
+  <si>
+    <t>Postal code of the biller</t>
+  </si>
+  <si>
+    <t>Stadt der Lieferung</t>
+  </si>
+  <si>
+    <t>Land der Lieferung (Freitext)</t>
+  </si>
+  <si>
+    <t>Ländercode der Lieferung</t>
+  </si>
+  <si>
+    <t>Postleitzahl der Lieferung</t>
+  </si>
+  <si>
+    <t>Postfach der Lieferung</t>
+  </si>
+  <si>
+    <t>Wird zusammen gefasst zur Straße inkl. Hausnummer der Lieferung</t>
+  </si>
+  <si>
+    <t>City of the delivery</t>
+  </si>
+  <si>
+    <t>Country name of the delivery</t>
+  </si>
+  <si>
+    <t>Country code of the delivery</t>
+  </si>
+  <si>
+    <t>Postal code of the delivery</t>
+  </si>
+  <si>
+    <t>PO box of the delivery</t>
+  </si>
+  <si>
+    <t>Postleitzahl des Rechnungsstellers</t>
+  </si>
+  <si>
+    <t>Postleitzahl des Rechnungsempfängers</t>
+  </si>
+  <si>
+    <t>is summarized to the street of the invoice recipient</t>
+  </si>
+  <si>
+    <t>is summarized to the street of the delivery</t>
+  </si>
+  <si>
+    <t>Name/company name of the delivery</t>
+  </si>
+  <si>
+    <t>The currency used in the invoice.</t>
+  </si>
+  <si>
+    <t>Art der Rechnung</t>
+  </si>
+  <si>
+    <t>Type of invoice</t>
+  </si>
+  <si>
+    <t>Die Lieferantennummer/Kreditorennummer (Nummer des Lieferanten im System des Rechnungsempfängers)</t>
+  </si>
+  <si>
+    <t>Positionsnummer aus der Bestellung (Bestellpositionsnummer).</t>
   </si>
 </sst>
 </file>
@@ -1398,11 +1437,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
@@ -1438,330 +1477,330 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>317</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>333</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>340</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1770,616 +1809,631 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>15</v>
+        <v>214</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="B37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>332</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
-        <v>96</v>
+        <v>187</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
-        <v>180</v>
+        <v>96</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="2" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B50" s="1"/>
       <c r="C50" s="2" t="s">
-        <v>163</v>
+        <v>321</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>270</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B52" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C52" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
-        <v>162</v>
+        <v>324</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
-        <v>6</v>
+        <v>326</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B57" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C57" s="2" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>186</v>
+        <v>117</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="B64" s="1"/>
+      <c r="C64" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="D64" s="2" t="s">
-        <v>173</v>
+        <v>90</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B65" s="1"/>
+      <c r="C65" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="D65" s="2" t="s">
         <v>171</v>
       </c>
+      <c r="E65" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="B66" s="1"/>
-      <c r="C66" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>280</v>
+      <c r="D66" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B67" s="1"/>
       <c r="D67" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="B68" s="1"/>
-      <c r="D68" s="2" t="s">
-        <v>174</v>
+      <c r="C68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>284</v>
+      <c r="D69" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="B70" s="1"/>
-      <c r="C70" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>284</v>
+        <v>167</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="2" t="s">
-        <v>286</v>
+        <v>86</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="2" t="s">
-        <v>189</v>
+        <v>86</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="2" t="s">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>187</v>
+        <v>341</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B76" s="1"/>
       <c r="D76" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>278</v>
@@ -2387,510 +2441,540 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="B77" s="1"/>
-      <c r="D77" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>279</v>
+      <c r="C77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>280</v>
+      <c r="D78" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="B79" s="1"/>
       <c r="D79" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="B80" s="1"/>
-      <c r="D80" s="2" t="s">
-        <v>174</v>
+      <c r="C80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B81" s="1"/>
-      <c r="C81" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="D81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="D82" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="B83" s="1"/>
-      <c r="D83" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C83" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>198</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="2" t="s">
-        <v>192</v>
+        <v>338</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>198</v>
+        <v>85</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="2" t="s">
-        <v>98</v>
+        <v>191</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="2" t="s">
-        <v>81</v>
+        <v>189</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>220</v>
+        <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="2" t="s">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="2" t="s">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>102</v>
+        <v>297</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="2" t="s">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>179</v>
+        <v>210</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>316</v>
+        <v>99</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="2" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="2" t="s">
-        <v>106</v>
+        <v>193</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="2" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="D102" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="2" t="s">
+      <c r="D104" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="E105" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="B107" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>278</v>
+      <c r="C108" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>279</v>
+        <v>112</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>326</v>
+      <c r="D110" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B112" s="1"/>
-      <c r="D112" s="2" t="s">
-        <v>174</v>
+      <c r="A112" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="D114" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>328</v>
+      <c r="C115" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/java/ubl2ebinterface/mapping.xlsx
+++ b/java/ubl2ebinterface/mapping.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mapping!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mapping!$A$2:$H$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="425">
   <si>
     <t>UBL-Feld</t>
   </si>
@@ -156,9 +156,6 @@
     <t>/AccountingSupplierParty/Party/PartyIdentification/ID[@schemeID='ProprietaryAddressID']</t>
   </si>
   <si>
-    <t>Codelist</t>
-  </si>
-  <si>
     <t>urn:www.cenbii.eu:profile:bii01:ver1.0
 urn:www.cenbii.eu:profile:bii03:ver1.0
 urn:www.cenbii.eu:profile:bii04:ver1.0
@@ -1058,6 +1055,268 @@
   </si>
   <si>
     <t>Positionsnummer aus der Bestellung (Bestellpositionsnummer).</t>
+  </si>
+  <si>
+    <t>UBL Codelist</t>
+  </si>
+  <si>
+    <t>EBI 4.1 Codelist</t>
+  </si>
+  <si>
+    <t>EBI Mapping</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient</t>
+  </si>
+  <si>
+    <t>Invoice/Biller</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/Address/Email</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/Address/Phone</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/Address/Name</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/Address/Contact</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/Address/Town</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/Address/POBox</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/Address/ZIP</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/Address/Street</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/BillersInvoiceRecipientID</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/Address/Country</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/Address/Country/@CountryCode</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/Address/AddressIdentifier[@AddressIdentifierType='DUNS']</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/Address/AddressIdentifier[@AddressIdentifierType='ProprietaryAddressID']</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/Address/AddressIdentifier[@AddressIdentifierType='GLN']</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/VATIdentificationNumber</t>
+  </si>
+  <si>
+    <t>Invoice/Biller/InvoiceRecipientsBillerID</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/Address/Email</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/Address/Phone</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/Address/AddressIdentifier[@AddressIdentifierType='DUNS']</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/Address/AddressIdentifier[@AddressIdentifierType='GLN']</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/Address/AddressIdentifier[@AddressIdentifierType='ProprietaryAddressID']</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/Address/Name</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/VATIdentificationNumber</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/Address/Contact</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/Address/Town</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/Address/Country/@CountryCode</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/Address/Country</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/Address/POBox</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/Address/ZIP</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/Address/Street</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/Reduction/Amount
+/Invoice/ReductionAndSurchargeDetails/Surcharge/Amount</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/Reduction/BaseAmount
+/Invoice/ReductionAndSurchargeDetails/Surcharge/BaseAmount</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/Reduction/VATRate
+/Invoice/ReductionAndSurchargeDetails/Surcharge/VATRate</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/FurtherIdentification[@IdentificationType='Contract']</t>
+  </si>
+  <si>
+    <t>/Invoice/Delivery/Date</t>
+  </si>
+  <si>
+    <t>/Invoice/Delivery/Address/Town</t>
+  </si>
+  <si>
+    <t>/Invoice/Delivery/Address/Country</t>
+  </si>
+  <si>
+    <t>/Invoice/Delivery/Address/Country/@CountryCode</t>
+  </si>
+  <si>
+    <t>/Invoice/Delivery/Address/ZIP</t>
+  </si>
+  <si>
+    <t>/Invoice/Delivery/Address/POBox</t>
+  </si>
+  <si>
+    <t>/Invoice/Delivery/Address/Street</t>
+  </si>
+  <si>
+    <t>/Invoice/Delivery/Address/Name</t>
+  </si>
+  <si>
+    <t>/Invoice/@InvoiceCurrency</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceNumber</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/Reduction/Percentage
+/Invoice/ReductionAndSurchargeDetails/Surcharge/Percentage</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/ReductionAndSurchargeListLineItemDetails/ReductionListLineItem/Percentage
+/Invoice/Details/ItemList/ListLineItem/ReductionAndSurchargeListLineItemDetails/SurchargeListLineItem/Percentage</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/ReductionAndSurchargeListLineItemDetails/ReductionListLineItem/BaseAmount
+/Invoice/Details/ItemList/ListLineItem/ReductionAndSurchargeListLineItemDetails/SurchargeListLineItem/BaseAmount</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/ReductionAndSurchargeListLineItemDetails/ReductionListLineItem/Amount
+/Invoice/Details/ItemList/ListLineItem/ReductionAndSurchargeListLineItemDetails/SurchargeListLineItem/Amount</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/PositionNumber</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Quantity</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/@Unit</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/VATRate</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Description</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/LineItemAmount</t>
+  </si>
+  <si>
+    <t>/Invoice/Delivery/Period/ToDate</t>
+  </si>
+  <si>
+    <t>/Invoice/Delivery/Period/FromDate</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/UnitPrice</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/UnitPrice/@BaseQuantity</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/InvoiceRecipientsOrderReference/OrderID</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/PositionNumber
+/Invoice/Details/ItemList/ListLineItem/InvoiceRecipientsOrderReference/OrderPositionNumber</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentConditions</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentConditions/Discount/Amount</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentConditions/Discount/</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentConditions/Discount/Percentage</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentConditions/Discount/PaymentDate</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/Comment</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentConditions/DueDate</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/SEPADirectDebit/IBAN
+/Invoice/PaymentMethod/UniversalBankTransaction/BeneficiaryAccount/IBAN</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/SEPADirectDebit/BIC
+/Invoice/PaymentMethod/UniversalBankTransaction/BeneficiaryAccount/BIC</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/UniversalBankTransaction/PaymentReference</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/OrderReference/OrderID</t>
+  </si>
+  <si>
+    <t>/Invoice/TotalGrossAmount</t>
+  </si>
+  <si>
+    <t>/Invoice/PayableAmount</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceDate</t>
+  </si>
+  <si>
+    <t>/Invoice/Tax/VAT/VATItem/TaxedAmount</t>
+  </si>
+  <si>
+    <t>/Invoice/Tax/VAT/VATItem/Amount</t>
+  </si>
+  <si>
+    <t>/Invoice/Tax/VAT/VATItem/VATRate</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1132,6 +1391,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1437,1548 +1702,1952 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <pane ySplit="2" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="84.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="65.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="37" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="8"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="G20" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G22" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="2" t="s">
-        <v>340</v>
-      </c>
+      <c r="C23" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="G31" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G34" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="G36" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="G41" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="D43" s="1"/>
       <c r="E43" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>95</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>183</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="2" t="s">
-        <v>255</v>
+        <v>95</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
-        <v>188</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="D47" s="1"/>
       <c r="E47" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E48" s="2" t="s">
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="2" t="s">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="D59" s="1"/>
       <c r="E59" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>93</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="D60" s="1"/>
       <c r="E60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>183</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="D62" s="1"/>
       <c r="E62" s="2" t="s">
-        <v>255</v>
+        <v>95</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" t="s">
+        <v>397</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="F66" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="F67" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="F69" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="F70" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="D66" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="D67" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B69" s="1"/>
-      <c r="D69" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B70" s="1"/>
-      <c r="D70" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F70" s="2" t="s">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="2" t="s">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="G72" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F72" s="2" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="G73" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="2" t="s">
-        <v>341</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="D74" s="1"/>
       <c r="E74" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E75" s="2" t="s">
+    <row r="76" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E76" s="2" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="2" t="s">
+    </row>
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="F78" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="F79" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="F81" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="F82" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B78" s="1"/>
-      <c r="D78" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="D79" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="D81" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B82" s="1"/>
-      <c r="D82" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E83" s="2" t="s">
+      <c r="G84" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B85" s="1"/>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H85" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B86" s="1"/>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="G86" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E87" s="2" t="s">
+      <c r="H87" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E88" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F88" s="2" t="s">
+    </row>
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="H89" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F89" s="2" t="s">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="2" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="H94" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>210</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="D95" s="1"/>
       <c r="E95" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B100" s="1"/>
-      <c r="C100" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="2" t="s">
+      <c r="G103" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="F104" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B102" s="1"/>
-      <c r="C102" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E103" s="2" t="s">
+      <c r="G106" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H106" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B104" s="1"/>
-      <c r="D104" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E108" s="2" t="s">
+    </row>
+    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="H112" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="F113" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="F114" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F113" s="2" t="s">
+      <c r="H114" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B114" s="1"/>
-      <c r="D114" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="E115" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H115" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>316</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F2"/>
+  <autoFilter ref="A2:H2"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>

--- a/java/ubl2ebinterface/mapping.xlsx
+++ b/java/ubl2ebinterface/mapping.xlsx
@@ -4,25 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mapping" sheetId="1" r:id="rId1"/>
+    <sheet name="Mapping UBL-&gt;EBI" sheetId="1" r:id="rId1"/>
+    <sheet name="Mapping EBI-&gt;UBL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mapping!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mapping UBL-&gt;EBI'!$A$2:$H$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="622">
   <si>
     <t>UBL-Feld</t>
-  </si>
-  <si>
-    <t>Mapping, Status 08.10.2013</t>
   </si>
   <si>
     <t>/UBLVersionID</t>
@@ -456,9 +454,6 @@
     <t>/PaymentMeans/PayeeFinancialAccount/ID</t>
   </si>
   <si>
-    <t>/AccountingSupplierParty/Party/PartyName</t>
-  </si>
-  <si>
     <t>/PaymentMeans/InstructionNote</t>
   </si>
   <si>
@@ -487,9 +482,6 @@
 /Delivery/DeliveryLocation/Address/BuildingNumber</t>
   </si>
   <si>
-    <t>/Delivery/DeliveryParty/PartyName</t>
-  </si>
-  <si>
     <t>/InvoicePeriod/StartDate</t>
   </si>
   <si>
@@ -1069,9 +1061,6 @@
     <t>/Invoice/InvoiceRecipient</t>
   </si>
   <si>
-    <t>Invoice/Biller</t>
-  </si>
-  <si>
     <t>/Invoice/InvoiceRecipient/Address/Email</t>
   </si>
   <si>
@@ -1115,9 +1104,6 @@
   </si>
   <si>
     <t>/Invoice/InvoiceRecipient/VATIdentificationNumber</t>
-  </si>
-  <si>
-    <t>Invoice/Biller/InvoiceRecipientsBillerID</t>
   </si>
   <si>
     <t>/Invoice/Biller/Address/Email</t>
@@ -1259,10 +1245,6 @@
     <t>/Invoice/Details/ItemList/ListLineItem/InvoiceRecipientsOrderReference/OrderID</t>
   </si>
   <si>
-    <t>/Invoice/Details/ItemList/ListLineItem/PositionNumber
-/Invoice/Details/ItemList/ListLineItem/InvoiceRecipientsOrderReference/OrderPositionNumber</t>
-  </si>
-  <si>
     <t>/Invoice/PaymentConditions</t>
   </si>
   <si>
@@ -1317,13 +1299,631 @@
   </si>
   <si>
     <t>/Invoice/Tax/VAT/VATItem/VATRate</t>
+  </si>
+  <si>
+    <t>/Delivery/DeliveryParty/PartyName
+(/Delivery/DeliveryLocation/Name
+/AccountingCustomerParty/Party/PartyName)</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Description (optional)</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/InvoiceRecipientsOrderReference/OrderPositionNumber</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/LineItemAmount
+(/Invoice/Details/ItemList/ListLineItem/UnitPrice (divided by /InvoiceLine/InvoicedQuantity))</t>
+  </si>
+  <si>
+    <t>/Invoice/PayableAmount
+(/Invoice/TotalGrossAmount)</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/UniversalBankTransaction/BeneficiaryAccount/BankAccountOwner</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/Address/Name
+(/Invoice/PaymentMethod/UniversalBankTransaction/BeneficiaryAccount/BankAccountOwner)</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentConditions/Comment</t>
+  </si>
+  <si>
+    <t>(/Invoice/ReductionAndSurchargeDetails/Reduction/BaseAmount
+/Invoice/ReductionAndSurchargeDetails/Surcharge/BaseAmount)</t>
+  </si>
+  <si>
+    <t>based on CEFACT 66411</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/InvoiceRecipientsBillerID</t>
+  </si>
+  <si>
+    <t>EBI Feld</t>
+  </si>
+  <si>
+    <t>/Invoice/@GeneratingSystem</t>
+  </si>
+  <si>
+    <t>/Invoice/@DocumentType</t>
+  </si>
+  <si>
+    <t>/Invoice/@ManualProcessing</t>
+  </si>
+  <si>
+    <t>/Invoice/@DocumentTitle</t>
+  </si>
+  <si>
+    <t>/Invoice/@Language</t>
+  </si>
+  <si>
+    <t>/Invoice/@IsDuplicate</t>
+  </si>
+  <si>
+    <t>/Invoice/Comment</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRootExtension</t>
+  </si>
+  <si>
+    <t>/Invoice/CancelledOriginalDocument/InvoiceNumber</t>
+  </si>
+  <si>
+    <t>/Invoice/CancelledOriginalDocument/InvoiceDate</t>
+  </si>
+  <si>
+    <t>/Invoice/CancelledOriginalDocument/DocumentType</t>
+  </si>
+  <si>
+    <t>/Invoice/CancelledOriginalDocument/Comment</t>
+  </si>
+  <si>
+    <t>/Invoice/RelatedDocument/InvoiceNumber</t>
+  </si>
+  <si>
+    <t>/Invoice/RelatedDocument/InvoiceDate</t>
+  </si>
+  <si>
+    <t>/Invoice/RelatedDocument/DocumentType</t>
+  </si>
+  <si>
+    <t>/Invoice/RelatedDocument/Comment</t>
+  </si>
+  <si>
+    <t>/Invoice/Delivery/DeliveryID</t>
+  </si>
+  <si>
+    <t>/Invoice/Delivery/Description</t>
+  </si>
+  <si>
+    <t>/Invoice/Delivery/DeliveryExtension</t>
+  </si>
+  <si>
+    <t>/Invoice/Delivery/Address/AddressIdentifier</t>
+  </si>
+  <si>
+    <t>/Invoice/Delivery/Address/AddressIdentifier/@AddressIdentifierType</t>
+  </si>
+  <si>
+    <t>/Invoice/Delivery/Address/Salutation</t>
+  </si>
+  <si>
+    <t>/Invoice/Delivery/Address/Phone</t>
+  </si>
+  <si>
+    <t>/Invoice/Delivery/Address/Email</t>
+  </si>
+  <si>
+    <t>/Invoice/Delivery/Address/Contact</t>
+  </si>
+  <si>
+    <t>/Invoice/Delivery/Address/AddressExtension</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/VATIdentification Number</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/FurtherIdentification</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/FurtherIdentification/@Identification-Type</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/OrderReference/OrderID</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/OrderReference/ReferenceDate</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/OrderReference/Description</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/BillerExtension</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/Address/AddressIdentifier</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/Address/Salutation</t>
+  </si>
+  <si>
+    <t>/Invoice/Biller/Address/AddressExtension</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/OrderReference/ReferenceDate</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/OrderReference/Description</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/InvoiceRecipientsExtension</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/SubOrganizationID</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/AccountingArea</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/Address/AddressIdentifier</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/Address/AddressIdentifier/@AddressIdentifierType</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/Address/Salutation</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/Address/AddressExtension</t>
+  </si>
+  <si>
+    <t>/Invoice/OrderingParty/VATIdentificationNumber</t>
+  </si>
+  <si>
+    <t>/Invoice/OrderingParty/FurtherIdentification</t>
+  </si>
+  <si>
+    <t>/Invoice/OrderingParty/FurtherIdentification/@IdentificationType</t>
+  </si>
+  <si>
+    <t>/Invoice/OrderingParty/OrderReference</t>
+  </si>
+  <si>
+    <t>/Invoice/OrderingParty/BillersOrderingPartyID</t>
+  </si>
+  <si>
+    <t>/Invoice/OrderingParty/OrderingPartyExtension</t>
+  </si>
+  <si>
+    <t>/Invoice/OrderingParty/Address/AddressIdentifier</t>
+  </si>
+  <si>
+    <t>/Invoice/InvoiceRecipient/VATIdentificationNumber/@IdentificationType</t>
+  </si>
+  <si>
+    <t>/Invoice/OrderingParty/Address/Salutation</t>
+  </si>
+  <si>
+    <t>/Invoice/OrderingParty/Address/Name</t>
+  </si>
+  <si>
+    <t>/Invoice/OrderingParty/Address/POBox</t>
+  </si>
+  <si>
+    <t>/Invoice/OrderingParty/Address/Street</t>
+  </si>
+  <si>
+    <t>/Invoice/OrderingParty/Address/Town</t>
+  </si>
+  <si>
+    <t>/Invoice/OrderingParty/Address/ZIP</t>
+  </si>
+  <si>
+    <t>/Invoice/OrderingParty/Address/Country</t>
+  </si>
+  <si>
+    <t>/Invoice/OrderingParty/Address/Country/@CountryCode</t>
+  </si>
+  <si>
+    <t>/Invoice/OrderingParty/Address/Phone</t>
+  </si>
+  <si>
+    <t>/Invoice/OrderingParty/Address/Email</t>
+  </si>
+  <si>
+    <t>/Invoice/OrderingParty/Address/Contact</t>
+  </si>
+  <si>
+    <t>/Invoice/OrderingParty/Address/AddressExtension</t>
+  </si>
+  <si>
+    <t>/Invoice/OrderingParty/Address/AddressIdentifier/@AddressIdentifierType</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/Header Description</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/HeaderDescription</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/FooterDescription</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/Footer Description/</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/BelowTheLineItem/Description</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/BelowTheLineItem/LineItemAmount</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/BelowTheLineItem/Reason</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/BelowTheLineItem/Reason/@Date</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/ReductionAndSurchargeDetailsExtension</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/Reduction/BaseAmount</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/Surcharge/BaseAmount</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/OtherVATableTax/BaseAmount</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/Reduction/Percentage</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/Surcharge/Percentage</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/OtherVATableTax/Percentage</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/OtherVATableTax/Amount</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/Surcharge/Amount</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/Reduction/Amount</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/Reduction/Comment</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/Surcharge/Comment</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/OtherVATableTax/TaxID</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/OtherVATableTax/Comment</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/Reduction/VATRate</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/OtherVATableTax/VATRate</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/Reduction/VATRate/@TaxCode</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/Surcharge/VATRate</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/Surcharge/VATRate/@TaxCode</t>
+  </si>
+  <si>
+    <t>/Invoice/ReductionAndSurchargeDetails/OtherVATableTax/VATRate/@TaxCode</t>
+  </si>
+  <si>
+    <t>/Invoice/Tax/VAT/VATItem/TaxExemption</t>
+  </si>
+  <si>
+    <t>/Invoice/Tax/VAT/VATItem/TaxExemption/@TaxExemptionCode</t>
+  </si>
+  <si>
+    <t>/Invoice/Tax/VAT/VATItem/VATRate/@TaxCode</t>
+  </si>
+  <si>
+    <t>/Invoice/Tax/OtherTax/Comment</t>
+  </si>
+  <si>
+    <t>/Invoice/Tax/OtherTax/Amount</t>
+  </si>
+  <si>
+    <t>/Invoice/Tax/TaxExtension</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/NoPayment</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/DirectPayment</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/PaymentMethodExtension</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/SEPADirectDebit/Type</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/SEPADirectDebit/BIC</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/SEPADirectDebit/IBAN</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/SEPADirectDebit/BankAccountOwner</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/SEPADirectDebit/CreditorID</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/SEPADirectDebit/MandateReference</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/SEPADirectDebit/DebitCollectionDate</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/UniversalBankTransaction/@Consolidator-Payable</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/UniversalBankTransaction/PaymentReference/@CheckSum</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/UniversalBankTransaction/BeneficiaryAccount/BankName</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/UniversalBankTransaction/BeneficiaryAccount/BankCode</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/UniversalBankTransaction/BeneficiaryAccount/BIC</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/UniversalBankTransaction/BeneficiaryAccount/IBAN</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/UniversalBankTransaction/BeneficiaryAccount/BankCode/@BankCodeType</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentMethod/UniversalBankTransaction/BeneficiaryAccount/BankAccountNr</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentConditions/Discount/BaseAmount</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentConditions/MinimumPayment</t>
+  </si>
+  <si>
+    <t>/Invoice/PaymentConditions/PaymentConditionsExtension</t>
+  </si>
+  <si>
+    <t>/Invoice/PresentationDetails/URL</t>
+  </si>
+  <si>
+    <t>/Invoice/PresentationDetails/LogoURL</t>
+  </si>
+  <si>
+    <t>/Invoice/PresentationDetails/LayoutID</t>
+  </si>
+  <si>
+    <t>/Invoice/PresentationDetails/SuppressZero</t>
+  </si>
+  <si>
+    <t>/Invoice/PresentationDetails/PresentationDetailsExtension</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/ArticleNumber</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/ArticleNumber/@ArticleNumberType</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Quantity/@Unit</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/TaxExemption</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/TaxExemption/@TaxExemptionCode</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/VATRate/@TaxCode</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/DiscountFlag</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/ListLineItemExtension</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/BillersOrderReference/OrderID</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/BillersOrderReference/ReferenceDate</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/BillersOrderReference/Description</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/BillersOrderReference/OrderPositionNumber</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/InvoiceRecipientsOrderReference/ReferenceDate</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/InvoiceRecipientsOrderReference/Description</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/InvoiceRecipientsOrderReference/Order PositionNumber</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/AdditionalInformation/SerialNumber</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/AdditionalInformation/ChargeNumber</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/AdditionalInformation/Classification</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/AdditionalInformation/Classification/@ClassificationSchema</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/AdditionalInformation/AlternativeQuantity</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/AdditionalInformation/AlternativeQuantity/@Unit</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/AdditionalInformation/Size</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/AdditionalInformation/Weight</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/AdditionalInformation/Weight/@Unit</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/AdditionalInformation/Boxes</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/AdditionalInformation/Color</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/ReductionAndSurchargeListLineItemDetails/ReductionListLineItem/BaseAmount</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/ReductionAndSurchargeListLineItemDetails/SurchargeListLineItem/BaseAmount</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/ReductionAndSurchargeListLineItemDetails/OtherVATableTaxListLineItem/BaseAmount</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/ReductionAndSurchargeListLineItemDetails/ReductionListLineItem/Percentage</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/ReductionAndSurchargeListLineItemDetails/SurchargeListLineItem/Percentage</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/ReductionAndSurchargeListLineItemDetails/OtherVATableTaxListLineItem/Percentage</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/ReductionAndSurchargeListLineItemDetails/ReductionListLineItem/Amount</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/ReductionAndSurchargeListLineItemDetails/SurchargeListLineItem/Amount</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/ReductionAndSurchargeListLineItemDetails/OtherVATableTaxListLineItem/Amount</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/ReductionAndSurchargeListLineItemDetails/ReductionListLineItem/Comment</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/ReductionAndSurchargeListLineItemDetails/SurchargeListLineItem/Comment</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/ReductionAndSurchargeListLineItemDetails/OtherVATableTaxListLineItem/Comment</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/ReductionAndSurchargeListLineItemDetails/OtherVATableTaxListLineItem/TaxID</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Delivery/DeliveryID/</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Delivery/Date</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Delivery/Period/FromDate</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Delivery/Period/ToDate</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Delivery/DeliveryExtension</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Delivery/Description</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Delivery/Address/AddressIdentifier</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Delivery/Address/AddressIdentifier/@AddressIdentifierType</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Delivery/Address/Salutation</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Delivery/Address/Name</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Delivery/Address/Street</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Delivery/Address/POBox</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Delivery/Address/Town</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Delivery/Address/ZIP</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Delivery/Address/Country</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Delivery/Address/Country/@CountryCode</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Delivery/Address/Phone</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Delivery/Address/Email</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Delivery/Address/Contact</t>
+  </si>
+  <si>
+    <t>/Invoice/Details/ItemList/ListLineItem/Delivery/Address/AddressExtension</t>
+  </si>
+  <si>
+    <t>/Invoice/dsig:Signature</t>
+  </si>
+  <si>
+    <t>Mapping, Status 08.10.2014</t>
+  </si>
+  <si>
+    <t>/AccountingSupplierParty/Party/EndpointID[@schemeID='DUNS']
+/AccountingSupplierParty/Party/PartyIdentification/ID[@schemeID='DUNS']</t>
+  </si>
+  <si>
+    <t>/AccountingSupplierParty/Party/EndpointID[@schemeID='ProprietaryAddressID']
+/AccountingSupplierParty/Party/PartyIdentification/ID[@schemeID='ProprietaryAddressID']</t>
+  </si>
+  <si>
+    <t>/AccountingSupplierParty/Party/EndpointID[@schemeID='GLN']
+/AccountingSupplierParty/Party/PartyIdentification/ID[@schemeID='GLN']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1339,13 +1939,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1366,10 +1986,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1392,14 +2013,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1702,11 +2345,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,10 +2366,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="B1" s="9"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="6"/>
@@ -1737,1435 +2380,1492 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>344</v>
+      <c r="C3" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>180</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>215</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>219</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>347</v>
+        <v>429</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="9" t="s">
-        <v>357</v>
+      <c r="C6" s="8" t="s">
+        <v>359</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>359</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="9" t="s">
-        <v>357</v>
+      <c r="C9" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>366</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E14" s="2" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>316</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
-        <v>332</v>
+        <v>23</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="2" t="s">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>345</v>
+        <v>430</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="2" t="s">
-        <v>339</v>
+        <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="2" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>379</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E25" s="2" t="s">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>419</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="2" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="9" t="s">
-        <v>364</v>
+      <c r="C27" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="2" t="s">
-        <v>36</v>
+        <v>321</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="2" t="s">
-        <v>40</v>
+        <v>322</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="2" t="s">
-        <v>38</v>
+        <v>317</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="9" t="s">
-        <v>364</v>
+      <c r="C30" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="2" t="s">
-        <v>36</v>
+        <v>320</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="2" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="2" t="s">
-        <v>18</v>
+        <v>194</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="2" t="s">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>15</v>
+      <c r="A34" t="s">
+        <v>175</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D34" s="1"/>
+      <c r="C34" t="s">
+        <v>392</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>428</v>
+      </c>
       <c r="E34" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="2" t="s">
-        <v>28</v>
+        <v>84</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>372</v>
+      <c r="C38" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="2" t="s">
-        <v>32</v>
+        <v>337</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>373</v>
+      <c r="C39" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="2" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>318</v>
+        <v>115</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="2" t="s">
-        <v>331</v>
+        <v>174</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>319</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="2" t="s">
-        <v>24</v>
+        <v>87</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>376</v>
+      <c r="C42" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H42" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="F43" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="G43" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="F44" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="G44" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="2" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="2" t="s">
-        <v>391</v>
+      <c r="C46" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="2" t="s">
-        <v>379</v>
+      <c r="C47" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2" t="s">
-        <v>187</v>
+        <v>82</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>255</v>
+        <v>264</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2" t="s">
-        <v>172</v>
+        <v>82</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2" t="s">
-        <v>320</v>
+        <v>9</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>326</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>383</v>
+        <v>341</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2" t="s">
-        <v>321</v>
+        <v>47</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>384</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D52" s="1"/>
       <c r="E52" s="2" t="s">
-        <v>322</v>
+        <v>59</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>328</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="1" t="s">
-        <v>385</v>
+      <c r="C53" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2" t="s">
-        <v>323</v>
+        <v>59</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2" t="s">
-        <v>324</v>
+        <v>58</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2" t="s">
-        <v>325</v>
+        <v>58</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>334</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>389</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="D57" s="1"/>
       <c r="E57" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="2" t="s">
-        <v>394</v>
+      <c r="C59" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D60" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E60" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2" t="s">
-        <v>181</v>
+        <v>51</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="2" t="s">
-        <v>392</v>
+      <c r="C62" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1"/>
-      <c r="C65" t="s">
-        <v>397</v>
+      <c r="C65" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="D66" s="1"/>
-      <c r="F66" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>265</v>
+      <c r="E66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>174</v>
+        <v>313</v>
       </c>
       <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="D67" s="1"/>
-      <c r="F67" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E67" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="C69" s="10" t="s">
+        <v>375</v>
+      </c>
       <c r="D69" s="1"/>
-      <c r="F69" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E69" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>412</v>
+      </c>
       <c r="D70" s="1"/>
-      <c r="F70" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E70" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B72" s="1"/>
-      <c r="C72" s="1" t="s">
-        <v>399</v>
+      <c r="C72" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="2" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2" t="s">
-        <v>273</v>
+        <v>199</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="B74" s="1"/>
-      <c r="C74" s="2" t="s">
-        <v>406</v>
+      <c r="C74" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="2" t="s">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D75" s="1"/>
-      <c r="E75" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="F75" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="D78" s="1"/>
-      <c r="F78" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>265</v>
+      <c r="E78" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="D79" s="1"/>
-      <c r="F79" s="2" t="s">
-        <v>163</v>
+      <c r="E79" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="C81" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="D81" s="1"/>
+      <c r="E81" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="F81" s="2" t="s">
-        <v>162</v>
+        <v>204</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="C82" s="2" t="s">
+        <v>410</v>
+      </c>
       <c r="D82" s="1"/>
+      <c r="E82" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="F82" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="1" t="s">
-        <v>401</v>
+      <c r="C83" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="2" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>280</v>
+        <v>208</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>411</v>
+      </c>
       <c r="D85" s="1"/>
       <c r="E85" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="2" t="s">
-        <v>12</v>
+        <v>183</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>285</v>
+        <v>247</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3173,134 +3873,119 @@
         <v>129</v>
       </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="C87" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="D87" s="1"/>
       <c r="E87" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="1" t="s">
-        <v>420</v>
+      <c r="C88" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="C89" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="D89" s="1"/>
       <c r="E89" s="2" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="1" t="s">
-        <v>419</v>
+      <c r="C90" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="2" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1" t="s">
+      <c r="G92" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D93" s="1"/>
       <c r="E93" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
@@ -3308,350 +3993,1653 @@
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>207</v>
+        <v>95</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="2" t="s">
-        <v>416</v>
-      </c>
+      <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="2" t="s">
-        <v>415</v>
-      </c>
+      <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="2" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>138</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="F97" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="1" t="s">
-        <v>414</v>
-      </c>
+      <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>299</v>
+      <c r="F98" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
+        <v>157</v>
       </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="1" t="s">
-        <v>417</v>
-      </c>
+      <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>137</v>
+      <c r="F99" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="F100" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>302</v>
+        <v>163</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="1" t="s">
-        <v>407</v>
-      </c>
+      <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>305</v>
+      <c r="F101" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="1" t="s">
-        <v>408</v>
-      </c>
+      <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F102" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>307</v>
+      <c r="F103" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="1" t="s">
-        <v>409</v>
-      </c>
+      <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="F104" s="2" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="1" t="s">
-        <v>410</v>
-      </c>
+      <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="2" t="s">
-        <v>103</v>
+        <v>334</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>310</v>
+        <v>335</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B106" s="1"/>
-      <c r="C106" s="1" t="s">
-        <v>411</v>
-      </c>
+      <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="2" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
       <c r="E107" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>422</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
       <c r="E108" s="2" t="s">
-        <v>81</v>
+        <v>189</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>423</v>
+        <v>2</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="B113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="F113" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="H111" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F112" s="5" t="s">
+      <c r="H113" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B114" s="1"/>
-      <c r="D114" s="1"/>
       <c r="F114" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2"/>
+  <autoFilter ref="A2:H2">
+    <sortState ref="A3:H114">
+      <sortCondition ref="C2"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B250"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="142.7109375" customWidth="1"/>
+    <col min="2" max="2" width="126.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>376</v>
+      </c>
+      <c r="B22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>397</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>396</v>
+      </c>
+      <c r="B24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>381</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>377</v>
+      </c>
+      <c r="B31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>380</v>
+      </c>
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>378</v>
+      </c>
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>379</v>
+      </c>
+      <c r="B34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>458</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>362</v>
+      </c>
+      <c r="B52" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>368</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>365</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>369</v>
+      </c>
+      <c r="B56" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>367</v>
+      </c>
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>366</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>357</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>430</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="18" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="18" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="18" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="18" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="18" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="18" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="18" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="18" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="18" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="18" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="18" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="18" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="18" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="18" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="18" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="18" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="18" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="18" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="18" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="18" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="18" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="18" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="18" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="18" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="18" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="18" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="18" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="18" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="18" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="18" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="18" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="18" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="18" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="18" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="18" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="18" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="18" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="18" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="18" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="18" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="18" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="18" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="18" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="18" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="18" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="18" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="18" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="18" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="18" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="18" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="18" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="18" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="18" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="18" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="18" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="17" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>439</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/java/ubl2ebinterface/mapping.xlsx
+++ b/java/ubl2ebinterface/mapping.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="626">
   <si>
     <t>UBL-Feld</t>
   </si>
@@ -1251,9 +1251,6 @@
     <t>/Invoice/PaymentConditions/Discount/Amount</t>
   </si>
   <si>
-    <t>/Invoice/PaymentConditions/Discount/</t>
-  </si>
-  <si>
     <t>/Invoice/PaymentConditions/Discount/Percentage</t>
   </si>
   <si>
@@ -1445,9 +1442,6 @@
     <t>/Invoice/Biller/BillerExtension</t>
   </si>
   <si>
-    <t>/Invoice/Biller/Address/AddressIdentifier</t>
-  </si>
-  <si>
     <t>/Invoice/Biller/Address/Salutation</t>
   </si>
   <si>
@@ -1469,12 +1463,6 @@
     <t>/Invoice/InvoiceRecipient/AccountingArea</t>
   </si>
   <si>
-    <t>/Invoice/InvoiceRecipient/Address/AddressIdentifier</t>
-  </si>
-  <si>
-    <t>/Invoice/InvoiceRecipient/Address/AddressIdentifier/@AddressIdentifierType</t>
-  </si>
-  <si>
     <t>/Invoice/InvoiceRecipient/Address/Salutation</t>
   </si>
   <si>
@@ -1482,12 +1470,6 @@
   </si>
   <si>
     <t>/Invoice/OrderingParty/VATIdentificationNumber</t>
-  </si>
-  <si>
-    <t>/Invoice/OrderingParty/FurtherIdentification</t>
-  </si>
-  <si>
-    <t>/Invoice/OrderingParty/FurtherIdentification/@IdentificationType</t>
   </si>
   <si>
     <t>/Invoice/OrderingParty/OrderReference</t>
@@ -1917,13 +1899,51 @@
   <si>
     <t>/AccountingSupplierParty/Party/EndpointID[@schemeID='GLN']
 /AccountingSupplierParty/Party/PartyIdentification/ID[@schemeID='GLN']</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/Item/Description
+/InvoiceLine/Item/Name (optional)</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/Price/PriceAmount
+(/InvoiceLine/LineExtensionAmount (divided by /InvoiceLine/InvoicedQuantity))</t>
+  </si>
+  <si>
+    <t>/InvoiceLine/Item/ClassifiedTaxCategory/Percent
+(/InvoiceLine/TaxTotal/TaxSubtotal/TaxCategory/Percent)</t>
+  </si>
+  <si>
+    <t>(/Invoice/Details/ItemList/ListLineItem/VATRate)</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/Party/EndpointID[@schemeID='DUNS']
+/AccountingCustomerParty/Party/PartyIdentification/ID[@schemeID='DUNS']</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/Party/EndpointID[@schemeID='GLN']
+/AccountingCustomerParty/Party/PartyIdentification/ID[@schemeID='GLN']</t>
+  </si>
+  <si>
+    <t>/AccountingCustomerParty/Party/EndpointID[@schemeID='ProprietaryAddressID']
+/AccountingCustomerParty/Party/PartyIdentification/ID[@schemeID='ProprietaryAddressID']</t>
+  </si>
+  <si>
+    <t>/LegalMonetaryTotal/PayableAmount
+(/Invoice/TotalGrossAmount)</t>
+  </si>
+  <si>
+    <t>/Invoice/OrderingParty/FurtherIdentification[@IdentificationType='Contract']</t>
+  </si>
+  <si>
+    <t>/AllowanceCharge/BaseAmount
+(/LegalMonetaryTotal/LineExtensionAmount)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1935,14 +1955,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1986,11 +1998,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2016,22 +2027,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2040,9 +2045,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2348,8 +2361,8 @@
   <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,10 +2379,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="B1" s="9"/>
+      <c r="A1" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="B1" s="17"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="6"/>
@@ -2401,681 +2414,657 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>128</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
-        <v>427</v>
+      <c r="C3" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>333</v>
+        <v>218</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>429</v>
+        <v>343</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="8" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="8" t="s">
-        <v>359</v>
+      <c r="C7" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>360</v>
+      <c r="C9" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>313</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2" t="s">
-        <v>25</v>
+        <v>329</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="2" t="s">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="2" t="s">
-        <v>336</v>
+        <v>13</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="2" t="s">
-        <v>15</v>
+        <v>336</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="2" t="s">
-        <v>318</v>
+        <v>21</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="2" t="s">
-        <v>319</v>
+        <v>19</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>419</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>383</v>
+      <c r="C26" s="8" t="s">
+        <v>359</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="2" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="2" t="s">
-        <v>321</v>
+        <v>35</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="2" t="s">
-        <v>322</v>
+        <v>39</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>377</v>
+      <c r="C29" s="8" t="s">
+        <v>359</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="2" t="s">
-        <v>317</v>
+        <v>37</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="2" t="s">
-        <v>320</v>
+        <v>35</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="2" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>397</v>
+      <c r="C32" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>277</v>
+        <v>17</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="2" t="s">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>175</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" t="s">
-        <v>392</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>428</v>
-      </c>
+      <c r="C34" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C36" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>366</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="2" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>122</v>
+        <v>315</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="2" t="s">
-        <v>421</v>
+      <c r="C38" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="2" t="s">
-        <v>422</v>
+      <c r="C39" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="2" t="s">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="2" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="2" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2" t="s">
@@ -3085,1165 +3074,1187 @@
         <v>248</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="G43" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="2" t="s">
-        <v>387</v>
-      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
-        <v>398</v>
+      <c r="C45" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="1" t="s">
-        <v>399</v>
+      <c r="C46" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
-        <v>393</v>
+      <c r="C47" s="9" t="s">
+        <v>375</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2" t="s">
-        <v>11</v>
+        <v>317</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2" t="s">
-        <v>9</v>
+        <v>318</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C51" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D51" s="1"/>
+        <v>379</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E51" s="2" t="s">
-        <v>47</v>
+        <v>319</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="8" t="s">
-        <v>353</v>
+      <c r="C52" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>320</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>219</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="8" t="s">
-        <v>353</v>
+      <c r="C53" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>321</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>322</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>73</v>
+        <v>418</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C56" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D56" s="1"/>
+        <v>384</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
-        <v>345</v>
+      <c r="C58" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
-        <v>351</v>
+      <c r="C59" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
       <c r="E60" s="2" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="B61" s="1"/>
-      <c r="C61" s="1" t="s">
-        <v>342</v>
+      <c r="C61" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>217</v>
+        <v>258</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>65</v>
+      <c r="A64" t="s">
+        <v>175</v>
       </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D64" s="1"/>
+      <c r="C64" t="s">
+        <v>392</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="E64" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>227</v>
+        <v>261</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>64</v>
+      <c r="A65" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="B65" s="1"/>
-      <c r="C65" s="1" t="s">
-        <v>349</v>
-      </c>
+      <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>330</v>
+      <c r="F65" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>66</v>
+      <c r="A66" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="B66" s="1"/>
-      <c r="C66" s="1" t="s">
-        <v>346</v>
-      </c>
+      <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F66" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>313</v>
+        <v>112</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="2" t="s">
-        <v>329</v>
+        <v>82</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>76</v>
+        <v>264</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="1" t="s">
-        <v>350</v>
-      </c>
+      <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>229</v>
+      <c r="F68" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>106</v>
+      <c r="A69" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="10" t="s">
-        <v>375</v>
-      </c>
+      <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F69" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>356</v>
+        <v>419</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>223</v>
+        <v>268</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="1" t="s">
-        <v>401</v>
+      <c r="C73" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2" t="s">
-        <v>199</v>
+        <v>337</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D75" s="1"/>
+      <c r="E75" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="F75" s="2" t="s">
-        <v>197</v>
+        <v>176</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B77" s="1"/>
-      <c r="C77" s="1" t="s">
-        <v>405</v>
-      </c>
+      <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>308</v>
+        <v>162</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="1" t="s">
-        <v>404</v>
-      </c>
+      <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F78" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>408</v>
+        <v>619</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="B80" s="1"/>
-      <c r="C80" s="1" t="s">
-        <v>406</v>
-      </c>
+      <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>292</v>
+      <c r="F80" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="B81" s="1"/>
-      <c r="C81" s="1" t="s">
-        <v>407</v>
-      </c>
+      <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="B82" s="1"/>
-      <c r="C82" s="2" t="s">
-        <v>410</v>
+      <c r="C82" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="2" t="s">
-        <v>409</v>
+      <c r="C83" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="2" t="s">
-        <v>99</v>
+        <v>194</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="1" t="s">
-        <v>424</v>
-      </c>
+      <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="2" t="s">
-        <v>207</v>
+        <v>334</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="2" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>182</v>
+      <c r="A86" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="B86" s="1"/>
-      <c r="C86" s="1" t="s">
-        <v>371</v>
+      <c r="C86" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="2" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="2" t="s">
-        <v>92</v>
+        <v>187</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>248</v>
+        <v>284</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="2" t="s">
-        <v>373</v>
-      </c>
+      <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="2" t="s">
-        <v>93</v>
+        <v>185</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="2" t="s">
-        <v>386</v>
+      <c r="C89" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="2" t="s">
-        <v>374</v>
+      <c r="C90" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="2" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>417</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D91" s="1"/>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>207</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>416</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D92" s="1"/>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>418</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D93" s="1"/>
       <c r="E93" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>192</v>
+        <v>96</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="1" t="s">
-        <v>413</v>
+      <c r="C94" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="C95" s="2" t="s">
+        <v>408</v>
+      </c>
       <c r="D95" s="1"/>
       <c r="E95" s="2" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
-        <v>156</v>
+        <v>190</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="D97" s="1"/>
-      <c r="F97" s="2" t="s">
-        <v>162</v>
+      <c r="E97" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="s">
-        <v>171</v>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="D98" s="1"/>
-      <c r="F98" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="15" t="s">
-        <v>157</v>
+      <c r="E98" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
+      <c r="E99" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="F99" s="2" t="s">
-        <v>159</v>
+        <v>300</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="15" t="s">
-        <v>170</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="D100" s="1"/>
-      <c r="F100" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E100" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="D101" s="1"/>
-      <c r="F101" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E101" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>425</v>
+      </c>
       <c r="D102" s="1"/>
-      <c r="F102" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E102" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="F103" s="2" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>403</v>
+      </c>
       <c r="D104" s="1"/>
-      <c r="F104" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="C105" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="D105" s="1"/>
       <c r="E105" s="2" t="s">
-        <v>334</v>
+        <v>101</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E106" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>287</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>415</v>
+      </c>
       <c r="E107" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="E108" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>160</v>
+        <v>107</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -4290,26 +4301,23 @@
   </sheetData>
   <autoFilter ref="A2:H2">
     <sortState ref="A3:H114">
-      <sortCondition ref="C2"/>
+      <sortCondition ref="A2"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B250"/>
+  <dimension ref="A2:B248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4319,19 +4327,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="B2" s="16"/>
+      <c r="A2" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4344,82 +4352,88 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>385</v>
       </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>415</v>
+        <v>414</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4448,32 +4462,32 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>419</v>
+      <c r="B28" s="15" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="15" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4519,37 +4533,37 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -4557,1086 +4571,1250 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>465</v>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>619</v>
+        <v>360</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>620</v>
+      <c r="B49" s="15" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
         <v>362</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B51" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B52" s="15" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>368</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B56" t="s">
-        <v>315</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
         <v>357</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B59" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="60" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B60" s="15" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>467</v>
+        <v>429</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>430</v>
-      </c>
-      <c r="B63" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+      <c r="B66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>344</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>347</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>346</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>348</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>351</v>
+      </c>
+      <c r="B78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>352</v>
+      </c>
+      <c r="B79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>343</v>
+      </c>
+      <c r="B80" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>342</v>
+      </c>
+      <c r="B81" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>624</v>
+      </c>
+      <c r="B89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="B109" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="16" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="B113" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>399</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="16" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="16" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="B123" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="B124" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="16" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="B128" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="16" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="16" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="16" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="16" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="16" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="16" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="16" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="16" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="16" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="16" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="16" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="16" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="16" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="16" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="16" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="16" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="16" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="16" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="16" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="16" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="16" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="16" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="16" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="16" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="16" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="16" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="16" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="16" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="B159" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="16" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="16" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="B162" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="16" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="16" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="16" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="16" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="16" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="16" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="16" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="16" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="B174" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="16" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="18" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="18" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="18" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="18" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="18" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="18" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="18" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="18" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="18" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="18" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="18" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="18" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="18" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="18" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="18" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="18" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="18" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="18" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="18" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="18" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="18" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="18" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="18" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="18" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="18" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="18" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="18" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="18" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="18" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="18" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="18" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="18" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="18" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="18" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="18" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="18" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="18" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="18" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="18" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="18" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="18" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="18" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="18" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="18" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="18" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="18" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="18" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="18" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="18" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="18" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="18" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="18" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="18" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="18" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="18" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="182" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="B182" s="15" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="B184" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="B186" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+      <c r="B189" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+      <c r="B192" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>415</v>
+      </c>
+      <c r="B202" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>417</v>
+      </c>
+      <c r="B205" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>416</v>
+      </c>
+      <c r="B207" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>412</v>
+      </c>
+      <c r="B211" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B212" s="15" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>406</v>
+      </c>
+      <c r="B213" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>530</v>
+      </c>
+      <c r="B217" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>531</v>
+      </c>
+      <c r="B218" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>540</v>
+      </c>
+      <c r="B227" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>541</v>
+      </c>
+      <c r="B229" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="B230" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>410</v>
+      </c>
+      <c r="B231" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="B234" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>404</v>
+      </c>
+      <c r="B235" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>403</v>
+      </c>
+      <c r="B237" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>402</v>
+      </c>
+      <c r="B238" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="17" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>402</v>
+        <v>425</v>
+      </c>
+      <c r="B240" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>426</v>
+        <v>547</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>556</v>
+        <v>437</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
         <v>438</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>439</v>
       </c>
     </row>
   </sheetData>
